--- a/web_scrape/Scraping_Sheet_Short.xlsx
+++ b/web_scrape/Scraping_Sheet_Short.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalip\OneDrive\Documents\Pyshician Web Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalip\OneDrive\Documents\physician_web_scraper\web_scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBEEB2A-D324-4EC0-B084-E8A2A5FC7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576BA1D-ACE9-4D49-8273-3E4750C8CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1293">
   <si>
     <t>ID</t>
   </si>
@@ -302,9 +302,6 @@
       </rPr>
       <t>https://www.healthgrades.com/physician/dr-alfredo-santillan-26klc</t>
     </r>
-  </si>
-  <si>
-    <t>Santillan, Aldredo A.</t>
   </si>
   <si>
     <r>
@@ -6162,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -6181,13 +6178,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -6199,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.95" customHeight="1">
@@ -6225,7 +6222,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O2" s="35"/>
     </row>
@@ -6253,7 +6250,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O3" s="35"/>
     </row>
@@ -6281,7 +6278,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="22.05" customHeight="1">
@@ -6308,7 +6305,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.05" customHeight="1">
@@ -6335,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.05" customHeight="1">
@@ -6416,7 +6413,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="22.05" customHeight="1">
@@ -6443,7 +6440,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="22.05" customHeight="1">
@@ -6461,16 +6458,16 @@
         <v>41</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="22.05" customHeight="1">
@@ -6479,17 +6476,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
@@ -6497,7 +6494,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="22.05" customHeight="1">
@@ -6506,10 +6503,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -6533,10 +6530,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>15</v>
@@ -6560,14 +6557,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="13" t="s">
         <v>15</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.05" customHeight="1">
@@ -6587,17 +6584,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.05" customHeight="1">
@@ -6614,25 +6611,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.05" customHeight="1">
@@ -6641,11 +6638,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.05" customHeight="1">
@@ -6668,10 +6665,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>15</v>
@@ -6686,7 +6683,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.05" customHeight="1">
@@ -6695,17 +6692,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
@@ -6713,7 +6710,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.05" customHeight="1">
@@ -6722,25 +6719,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="G21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.05" customHeight="1">
@@ -6749,14 +6746,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="E22" s="13" t="s">
         <v>15</v>
       </c>
@@ -6767,7 +6764,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1">
@@ -6776,25 +6773,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
@@ -6803,17 +6800,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="F24" s="13" t="s">
         <v>15</v>
       </c>
@@ -6821,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22.8" customHeight="1">
@@ -6830,25 +6827,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="G25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22.8" customHeight="1">
@@ -6857,25 +6854,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="G26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22.8" customHeight="1">
@@ -6884,17 +6881,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
@@ -6902,7 +6899,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22.8" customHeight="1">
@@ -6911,25 +6908,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="H28" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.8" customHeight="1">
@@ -6938,25 +6935,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="G29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" customHeight="1">
@@ -6965,13 +6962,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="D30" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>15</v>
@@ -6983,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.8" customHeight="1">
@@ -6992,14 +6989,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="13" t="s">
         <v>15</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.8" customHeight="1">
@@ -7019,25 +7016,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="G32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22.8" customHeight="1">
@@ -7046,11 +7043,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
@@ -7064,7 +7061,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22.8" customHeight="1">
@@ -7073,25 +7070,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="G34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22.8" customHeight="1">
@@ -7100,17 +7097,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="F35" s="13" t="s">
         <v>15</v>
       </c>
@@ -7118,7 +7115,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.8" customHeight="1">
@@ -7127,14 +7124,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
@@ -7145,7 +7142,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22.8" customHeight="1">
@@ -7154,16 +7151,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>15</v>
@@ -7181,10 +7178,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>15</v>
@@ -7208,25 +7205,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="G39" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22.8" customHeight="1">
@@ -7235,25 +7232,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.8" customHeight="1">
@@ -7262,14 +7259,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="E41" s="13" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.8" customHeight="1">
@@ -7289,25 +7286,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="H42" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.8" customHeight="1">
@@ -7316,17 +7313,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="F43" s="13" t="s">
         <v>15</v>
       </c>
@@ -7334,7 +7331,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.8" customHeight="1">
@@ -7343,17 +7340,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="F44" s="13" t="s">
         <v>15</v>
       </c>
@@ -7361,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.8" customHeight="1">
@@ -7370,25 +7367,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="G45" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22.8" customHeight="1">
@@ -7397,25 +7394,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="G46" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.8" customHeight="1">
@@ -7424,25 +7421,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="G47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" customHeight="1">
@@ -7451,25 +7448,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="G48" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22.8" customHeight="1">
@@ -7478,11 +7475,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="D49" s="16" t="s">
         <v>15</v>
       </c>
@@ -7496,7 +7493,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22.8" customHeight="1">
@@ -7505,10 +7502,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>15</v>
@@ -7532,25 +7529,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="E51" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="G51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22.8" customHeight="1">
@@ -7559,25 +7556,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="E52" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="G52" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22.8" customHeight="1">
@@ -7586,25 +7583,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="E53" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="G53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22.8" customHeight="1">
@@ -7613,17 +7610,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="F54" s="13" t="s">
         <v>15</v>
       </c>
@@ -7631,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22.8" customHeight="1">
@@ -7640,25 +7637,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="E55" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="G55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22.8" customHeight="1">
@@ -7667,17 +7664,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" customHeight="1">
@@ -7694,25 +7691,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="G57" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22.8" customHeight="1">
@@ -7721,17 +7718,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="E58" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22.8" customHeight="1">
@@ -7748,17 +7745,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
       </c>
@@ -7766,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22.8" customHeight="1">
@@ -7775,17 +7772,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="E60" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +7790,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22.8" customHeight="1">
@@ -7802,25 +7799,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="E61" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="F61" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>229</v>
-      </c>
       <c r="G61" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22.8" customHeight="1">
@@ -7829,25 +7826,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="E62" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="F62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>233</v>
-      </c>
       <c r="H62" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -7856,25 +7853,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="F63" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>238</v>
-      </c>
       <c r="G63" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22.8" customHeight="1">
@@ -7883,25 +7880,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="E64" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="G64" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22.8" customHeight="1">
@@ -7910,25 +7907,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="E65" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>248</v>
-      </c>
       <c r="G65" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" customHeight="1">
@@ -7937,25 +7934,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="E66" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>253</v>
-      </c>
       <c r="G66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22.8" customHeight="1">
@@ -7964,10 +7961,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>15</v>
@@ -7991,17 +7988,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="E68" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="F68" s="13" t="s">
         <v>15</v>
       </c>
@@ -8009,7 +8006,7 @@
         <v>15</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22.8" customHeight="1">
@@ -8018,10 +8015,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>15</v>
@@ -8045,25 +8042,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="E70" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="F70" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>266</v>
-      </c>
       <c r="G70" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22.8" customHeight="1">
@@ -8072,10 +8069,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>15</v>
@@ -8099,25 +8096,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="D72" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="E72" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="G72" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22.8" customHeight="1">
@@ -8126,25 +8123,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="E73" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="F73" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="G73" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22.8" customHeight="1">
@@ -8153,25 +8150,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="E74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>281</v>
-      </c>
       <c r="G74" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" customHeight="1">
@@ -8180,17 +8177,17 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="E75" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="F75" s="13" t="s">
         <v>15</v>
       </c>
@@ -8198,7 +8195,7 @@
         <v>15</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22.8" customHeight="1">
@@ -8207,14 +8204,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C76" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>286</v>
-      </c>
       <c r="E76" s="13" t="s">
         <v>15</v>
       </c>
@@ -8225,7 +8222,7 @@
         <v>15</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22.8" customHeight="1">
@@ -8234,11 +8231,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="D77" s="16" t="s">
         <v>15</v>
       </c>
@@ -8252,7 +8249,7 @@
         <v>15</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22.8" customHeight="1">
@@ -8261,14 +8258,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="D78" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>291</v>
-      </c>
       <c r="E78" s="13" t="s">
         <v>15</v>
       </c>
@@ -8279,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22.8" customHeight="1">
@@ -8288,25 +8285,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="D79" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="E79" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="G79" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>297</v>
-      </c>
       <c r="H79" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22.8" customHeight="1">
@@ -8315,25 +8312,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="D80" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="E80" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="F80" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>302</v>
-      </c>
       <c r="G80" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22.8" customHeight="1">
@@ -8342,14 +8339,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>304</v>
-      </c>
       <c r="E81" s="13" t="s">
         <v>15</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>15</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22.8" customHeight="1">
@@ -8369,17 +8366,17 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="F82" s="13" t="s">
         <v>15</v>
       </c>
@@ -8387,7 +8384,7 @@
         <v>15</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22.8" customHeight="1">
@@ -8396,25 +8393,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="D83" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>310</v>
-      </c>
       <c r="G83" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.05" customHeight="1">
@@ -8423,25 +8420,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="D84" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="E84" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F84" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>315</v>
-      </c>
       <c r="G84" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22.8" customHeight="1">
@@ -8450,17 +8447,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="E85" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>318</v>
-      </c>
       <c r="F85" s="13" t="s">
         <v>15</v>
       </c>
@@ -8468,7 +8465,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22.8" customHeight="1">
@@ -8477,17 +8474,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C86" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="E86" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="F86" s="13" t="s">
         <v>15</v>
       </c>
@@ -8495,7 +8492,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22.8" customHeight="1">
@@ -8504,25 +8501,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C87" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="E87" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="F87" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="G87" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22.8" customHeight="1">
@@ -8531,25 +8528,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C88" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="F88" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="G88" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="G88" s="36" t="s">
-        <v>330</v>
-      </c>
       <c r="H88" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22.8" customHeight="1">
@@ -8558,14 +8555,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>332</v>
-      </c>
       <c r="E89" s="13" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22.8" customHeight="1">
@@ -8585,17 +8582,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="D90" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="E90" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="F90" s="13" t="s">
         <v>15</v>
       </c>
@@ -8603,7 +8600,7 @@
         <v>15</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22.8" customHeight="1">
@@ -8612,11 +8609,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>338</v>
-      </c>
       <c r="D91" s="16" t="s">
         <v>15</v>
       </c>
@@ -8630,7 +8627,7 @@
         <v>15</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22.8" customHeight="1">
@@ -8639,25 +8636,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="D92" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="E92" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="F92" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="G92" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="G92" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="H92" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22.8" customHeight="1">
@@ -8666,25 +8663,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="D93" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="E93" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="G93" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22.8" customHeight="1">
@@ -8693,25 +8690,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="D94" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="E94" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="F94" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="G94" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22.8" customHeight="1">
@@ -8720,25 +8717,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="E95" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="F95" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="G95" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22.8" customHeight="1">
@@ -8747,25 +8744,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="D96" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="E96" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="F96" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="G96" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="G96" s="13" t="s">
-        <v>364</v>
-      </c>
       <c r="H96" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22.8" customHeight="1">
@@ -8774,25 +8771,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="D97" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="E97" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="F97" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>369</v>
-      </c>
       <c r="G97" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22.8" customHeight="1">
@@ -8801,10 +8798,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>371</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>15</v>
@@ -8828,11 +8825,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>373</v>
-      </c>
       <c r="D99" s="16" t="s">
         <v>15</v>
       </c>
@@ -8846,7 +8843,7 @@
         <v>15</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22.8" customHeight="1">
@@ -8855,17 +8852,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="D100" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="E100" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E100" s="22" t="s">
-        <v>377</v>
-      </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
@@ -8873,7 +8870,7 @@
         <v>15</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22.8" customHeight="1">
@@ -8882,17 +8879,17 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="D101" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>380</v>
-      </c>
       <c r="F101" s="21" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8897,7 @@
         <v>15</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22.8" customHeight="1">
@@ -8909,10 +8906,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>15</v>
@@ -8936,25 +8933,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="D103" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="E103" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="F103" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>387</v>
-      </c>
       <c r="G103" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22.8" customHeight="1">
@@ -8963,25 +8960,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="D104" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="E104" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="F104" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>392</v>
-      </c>
       <c r="G104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22.8" customHeight="1">
@@ -8990,25 +8987,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="D105" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="E105" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="F105" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="G105" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="G105" s="13" t="s">
-        <v>398</v>
-      </c>
       <c r="H105" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22.8" customHeight="1">
@@ -9017,25 +9014,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C106" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="D106" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="E106" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="F106" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>403</v>
-      </c>
       <c r="H106" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22.8" customHeight="1">
@@ -9044,11 +9041,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>405</v>
-      </c>
       <c r="D107" s="16" t="s">
         <v>15</v>
       </c>
@@ -9062,7 +9059,7 @@
         <v>15</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22.8" customHeight="1">
@@ -9071,25 +9068,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C108" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="16" t="s">
+      <c r="E108" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="F108" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>409</v>
-      </c>
       <c r="H108" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22.8" customHeight="1">
@@ -9098,25 +9095,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="D109" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="E109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E109" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="13" t="s">
+      <c r="G109" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>414</v>
-      </c>
       <c r="H109" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22.8" customHeight="1">
@@ -9125,25 +9122,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C110" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D110" s="16" t="s">
+      <c r="E110" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="F110" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>418</v>
-      </c>
       <c r="G110" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22.8" customHeight="1">
@@ -9152,17 +9149,17 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C111" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="E111" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="E111" s="13" t="s">
-        <v>421</v>
-      </c>
       <c r="F111" s="13" t="s">
         <v>15</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>15</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="22.8" customHeight="1">
@@ -9179,25 +9176,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="D112" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="E112" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="F112" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="G112" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="G112" s="13" t="s">
-        <v>427</v>
-      </c>
       <c r="H112" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="22.8" customHeight="1">
@@ -9206,17 +9203,17 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="D113" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="E113" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E113" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="F113" s="13" t="s">
         <v>15</v>
       </c>
@@ -9224,7 +9221,7 @@
         <v>15</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22.8" customHeight="1">
@@ -9233,17 +9230,17 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="D114" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="E114" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="E114" s="13" t="s">
-        <v>435</v>
-      </c>
       <c r="F114" s="13" t="s">
         <v>15</v>
       </c>
@@ -9251,7 +9248,7 @@
         <v>15</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22.8" customHeight="1">
@@ -9260,17 +9257,17 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="D115" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>438</v>
-      </c>
       <c r="F115" s="13" t="s">
         <v>15</v>
       </c>
@@ -9278,7 +9275,7 @@
         <v>15</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22.8" customHeight="1">
@@ -9287,10 +9284,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" s="20" t="s">
         <v>439</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>440</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>15</v>
@@ -9314,14 +9311,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="D117" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>443</v>
-      </c>
       <c r="E117" s="13" t="s">
         <v>15</v>
       </c>
@@ -9332,7 +9329,7 @@
         <v>15</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22.8" customHeight="1">
@@ -9341,25 +9338,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C118" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="E118" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="F118" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>447</v>
-      </c>
       <c r="H118" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="22.8" customHeight="1">
@@ -9368,17 +9365,17 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="D119" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
@@ -9386,7 +9383,7 @@
         <v>15</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="22.8" customHeight="1">
@@ -9395,17 +9392,17 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="D120" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="E120" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="E120" s="13" t="s">
-        <v>454</v>
-      </c>
       <c r="F120" s="13" t="s">
         <v>15</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>15</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22.8" customHeight="1">
@@ -9422,14 +9419,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C121" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="D121" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="D121" s="16" t="s">
-        <v>457</v>
-      </c>
       <c r="E121" s="13" t="s">
         <v>15</v>
       </c>
@@ -9440,7 +9437,7 @@
         <v>15</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22.8" customHeight="1">
@@ -9449,11 +9446,11 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C122" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="C122" s="20" t="s">
-        <v>459</v>
-      </c>
       <c r="D122" s="16" t="s">
         <v>15</v>
       </c>
@@ -9467,7 +9464,7 @@
         <v>15</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22.8" customHeight="1">
@@ -9476,25 +9473,25 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="D123" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="E123" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="F123" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>464</v>
-      </c>
       <c r="G123" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22.8" customHeight="1">
@@ -9503,25 +9500,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C124" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="E124" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="F124" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>468</v>
-      </c>
       <c r="G124" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22.8" customHeight="1">
@@ -9530,25 +9527,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C125" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="E125" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="F125" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="F125" s="13" t="s">
+      <c r="G125" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>473</v>
-      </c>
       <c r="H125" s="13" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="22.8" customHeight="1">
@@ -9557,17 +9554,17 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C126" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D126" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="E126" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E126" s="13" t="s">
-        <v>476</v>
-      </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
@@ -9575,7 +9572,7 @@
         <v>15</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="22.8" customHeight="1">
@@ -9584,17 +9581,17 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="D127" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="E127" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="13" t="s">
-        <v>480</v>
-      </c>
       <c r="F127" s="13" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>15</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="22.8" customHeight="1">
@@ -9611,17 +9608,17 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="D128" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="E128" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="E128" s="13" t="s">
-        <v>484</v>
-      </c>
       <c r="F128" s="13" t="s">
         <v>15</v>
       </c>
@@ -9629,7 +9626,7 @@
         <v>15</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="22.8" customHeight="1">
@@ -9638,25 +9635,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C129" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="D129" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="E129" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>489</v>
-      </c>
       <c r="G129" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22.8" customHeight="1">
@@ -9665,17 +9662,17 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C130" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="D130" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="E130" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E130" s="13" t="s">
-        <v>493</v>
-      </c>
       <c r="F130" s="13" t="s">
         <v>15</v>
       </c>
@@ -9683,7 +9680,7 @@
         <v>15</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="22.8" customHeight="1">
@@ -9692,11 +9689,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C131" s="20" t="s">
-        <v>495</v>
-      </c>
       <c r="D131" s="16" t="s">
         <v>15</v>
       </c>
@@ -9710,7 +9707,7 @@
         <v>15</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="22.8" customHeight="1">
@@ -9719,17 +9716,17 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C132" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="D132" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="E132" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="E132" s="13" t="s">
-        <v>498</v>
-      </c>
       <c r="F132" s="13" t="s">
         <v>15</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>15</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="22.8" customHeight="1">
@@ -9746,25 +9743,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C133" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="D133" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="E133" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="F133" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="G133" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="22.8" customHeight="1">
@@ -9773,25 +9770,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="D134" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="E134" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="F134" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="G134" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>508</v>
-      </c>
       <c r="H134" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="22.8" customHeight="1">
@@ -9800,10 +9797,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C135" s="20" t="s">
         <v>509</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>510</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>15</v>
@@ -9827,17 +9824,17 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C136" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="E136" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="E136" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="F136" s="13" t="s">
         <v>15</v>
       </c>
@@ -9845,7 +9842,7 @@
         <v>15</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="22.8" customHeight="1">
@@ -9854,25 +9851,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C137" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>515</v>
-      </c>
       <c r="G137" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="22.8" customHeight="1">
@@ -9881,25 +9878,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C138" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D138" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="E138" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="F138" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>519</v>
-      </c>
       <c r="G138" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="22.8" customHeight="1">
@@ -9908,10 +9905,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>15</v>
@@ -9926,7 +9923,7 @@
         <v>15</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="22.8" customHeight="1">
@@ -9935,25 +9932,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C140" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D140" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="E140" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>524</v>
-      </c>
       <c r="G140" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="22.8" customHeight="1">
@@ -9962,22 +9959,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="D141" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>527</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>15</v>
@@ -9989,25 +9986,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C142" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="D142" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="E142" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="F142" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>532</v>
-      </c>
       <c r="G142" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="22.8" customHeight="1">
@@ -10016,14 +10013,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C143" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>534</v>
-      </c>
       <c r="E143" s="13" t="s">
         <v>15</v>
       </c>
@@ -10034,7 +10031,7 @@
         <v>15</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="22.8" customHeight="1">
@@ -10043,25 +10040,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C144" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="D144" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="E144" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="F144" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="F144" s="13" t="s">
-        <v>539</v>
-      </c>
       <c r="G144" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="22.8" customHeight="1">
@@ -10070,25 +10067,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C145" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="D145" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="E145" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="E145" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>543</v>
-      </c>
       <c r="G145" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="22.8" customHeight="1">
@@ -10097,25 +10094,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="D146" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="E146" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="F146" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="G146" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="G146" s="13" t="s">
-        <v>549</v>
-      </c>
       <c r="H146" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="22.8" customHeight="1">
@@ -10124,17 +10121,17 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="D147" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="E147" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="E147" s="13" t="s">
-        <v>553</v>
-      </c>
       <c r="F147" s="13" t="s">
         <v>15</v>
       </c>
@@ -10142,7 +10139,7 @@
         <v>15</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="22.8" customHeight="1">
@@ -10151,25 +10148,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="D148" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="E148" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="F148" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="E148" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>557</v>
-      </c>
       <c r="G148" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="22.8" customHeight="1">
@@ -10178,25 +10175,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C149" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="D149" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="E149" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="F149" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="F149" s="13" t="s">
-        <v>562</v>
-      </c>
       <c r="G149" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="22.8" customHeight="1">
@@ -10205,10 +10202,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>15</v>
@@ -10223,7 +10220,7 @@
         <v>15</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="22.8" customHeight="1">
@@ -10232,25 +10229,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="D151" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="E151" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="F151" s="13" t="s">
+      <c r="G151" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="G151" s="13" t="s">
-        <v>569</v>
-      </c>
       <c r="H151" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="22.8" customHeight="1">
@@ -10259,25 +10256,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C152" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="D152" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="E152" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="F152" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="F152" s="13" t="s">
-        <v>574</v>
-      </c>
       <c r="G152" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="22.8" customHeight="1">
@@ -10286,25 +10283,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="D153" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="E153" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="F153" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="F153" s="13" t="s">
+      <c r="G153" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G153" s="13" t="s">
-        <v>580</v>
-      </c>
       <c r="H153" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="22.8" customHeight="1">
@@ -10313,17 +10310,17 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C154" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="D154" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="E154" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>584</v>
-      </c>
       <c r="F154" s="13" t="s">
         <v>15</v>
       </c>
@@ -10331,7 +10328,7 @@
         <v>15</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="22.8" customHeight="1">
@@ -10340,25 +10337,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C155" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D155" s="16" t="s">
+      <c r="E155" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="F155" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="F155" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>588</v>
-      </c>
       <c r="H155" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="22.8" customHeight="1">
@@ -10367,25 +10364,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="D156" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="E156" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="F156" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>593</v>
-      </c>
       <c r="G156" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="22.8" customHeight="1">
@@ -10394,10 +10391,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" s="20" t="s">
         <v>594</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>595</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>15</v>
@@ -10421,17 +10418,17 @@
         <v>157</v>
       </c>
       <c r="B158" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="C158" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="D158" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>598</v>
-      </c>
       <c r="F158" s="13" t="s">
         <v>15</v>
       </c>
@@ -10439,7 +10436,7 @@
         <v>15</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="22.8" customHeight="1">
@@ -10448,25 +10445,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C159" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="D159" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="E159" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="F159" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="F159" s="25" t="s">
-        <v>603</v>
-      </c>
       <c r="G159" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="22.8" customHeight="1">
@@ -10475,25 +10472,25 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C160" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="D160" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="E160" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="F160" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="F160" s="25" t="s">
-        <v>608</v>
-      </c>
       <c r="G160" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="22.8" customHeight="1">
@@ -10502,25 +10499,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C161" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="D161" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="E161" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="F161" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="F161" s="25" t="s">
-        <v>613</v>
-      </c>
       <c r="G161" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="22.8" customHeight="1">
@@ -10529,25 +10526,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C162" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="D162" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="E162" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="F162" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="F162" s="13" t="s">
-        <v>618</v>
-      </c>
       <c r="G162" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="22.8" customHeight="1">
@@ -10556,25 +10553,25 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C163" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="D163" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="E163" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="F163" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="F163" s="25" t="s">
-        <v>623</v>
-      </c>
       <c r="G163" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="22.8" customHeight="1">
@@ -10583,14 +10580,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C164" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="D164" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="D164" s="26" t="s">
-        <v>626</v>
-      </c>
       <c r="E164" s="13" t="s">
         <v>15</v>
       </c>
@@ -10601,7 +10598,7 @@
         <v>15</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="22.8" customHeight="1">
@@ -10610,17 +10607,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C165" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="D165" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="E165" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="E165" s="13" t="s">
-        <v>630</v>
-      </c>
       <c r="F165" s="13" t="s">
         <v>15</v>
       </c>
@@ -10628,7 +10625,7 @@
         <v>15</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="22.8" customHeight="1">
@@ -10637,10 +10634,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C166" s="20" t="s">
         <v>631</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>632</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>15</v>
@@ -10664,17 +10661,17 @@
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="D167" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="E167" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="E167" s="13" t="s">
-        <v>636</v>
-      </c>
       <c r="F167" s="13" t="s">
         <v>15</v>
       </c>
@@ -10682,7 +10679,7 @@
         <v>15</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="22.8" customHeight="1">
@@ -10691,25 +10688,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C168" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="D168" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="E168" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="F168" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="F168" s="13" t="s">
-        <v>641</v>
-      </c>
       <c r="G168" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="22.8" customHeight="1">
@@ -10718,25 +10715,25 @@
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C169" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="D169" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="E169" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="F169" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="G169" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="22.8" customHeight="1">
@@ -10745,25 +10742,25 @@
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C170" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D170" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D170" s="16" t="s">
+      <c r="E170" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="F170" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="F170" s="25" t="s">
-        <v>650</v>
-      </c>
       <c r="G170" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="22.8" customHeight="1">
@@ -10772,17 +10769,17 @@
         <v>170</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C171" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="D171" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>652</v>
-      </c>
       <c r="F171" s="13" t="s">
         <v>15</v>
       </c>
@@ -10790,7 +10787,7 @@
         <v>15</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="22.8" customHeight="1">
@@ -10799,25 +10796,25 @@
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C172" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="E172" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="F172" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="F172" s="25" t="s">
-        <v>656</v>
-      </c>
       <c r="G172" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="22.8" customHeight="1">
@@ -10826,25 +10823,25 @@
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C173" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="D173" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="D173" s="16" t="s">
+      <c r="E173" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="F173" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="F173" s="25" t="s">
-        <v>660</v>
-      </c>
       <c r="G173" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="22.8" customHeight="1">
@@ -10853,11 +10850,11 @@
         <v>173</v>
       </c>
       <c r="B174" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="C174" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="C174" s="20" t="s">
-        <v>662</v>
-      </c>
       <c r="D174" s="16" t="s">
         <v>15</v>
       </c>
@@ -10871,7 +10868,7 @@
         <v>15</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="22.8" customHeight="1">
@@ -10880,17 +10877,17 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C175" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="D175" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="D175" s="16" t="s">
+      <c r="E175" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E175" s="13" t="s">
-        <v>666</v>
-      </c>
       <c r="F175" s="13" t="s">
         <v>15</v>
       </c>
@@ -10898,7 +10895,7 @@
         <v>15</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="22.8" customHeight="1">
@@ -10907,14 +10904,14 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C176" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="D176" s="26" t="s">
-        <v>668</v>
-      </c>
       <c r="E176" s="13" t="s">
         <v>15</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>15</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="22.8" customHeight="1">
@@ -10934,14 +10931,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="C177" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="D177" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="D177" s="26" t="s">
-        <v>671</v>
-      </c>
       <c r="E177" s="13" t="s">
         <v>15</v>
       </c>
@@ -10952,7 +10949,7 @@
         <v>15</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="22.8" customHeight="1">
@@ -10961,17 +10958,17 @@
         <v>177</v>
       </c>
       <c r="B178" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="D178" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="E178" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="E178" s="25" t="s">
-        <v>675</v>
-      </c>
       <c r="F178" s="13" t="s">
         <v>15</v>
       </c>
@@ -10979,7 +10976,7 @@
         <v>15</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="22.8" customHeight="1">
@@ -10988,25 +10985,25 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="D179" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="E179" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="F179" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="F179" s="25" t="s">
+      <c r="G179" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="G179" s="25" t="s">
-        <v>681</v>
-      </c>
       <c r="H179" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="22.8" customHeight="1">
@@ -11015,17 +11012,17 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C180" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="D180" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="D180" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180" s="25" t="s">
-        <v>684</v>
-      </c>
       <c r="F180" s="13" t="s">
         <v>15</v>
       </c>
@@ -11033,7 +11030,7 @@
         <v>15</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="22.8" customHeight="1">
@@ -11042,25 +11039,25 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C181" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D181" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>686</v>
-      </c>
       <c r="G181" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="22.8" customHeight="1">
@@ -11069,22 +11066,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C182" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="D182" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" s="25" t="s">
+      <c r="G182" s="25" t="s">
         <v>688</v>
-      </c>
-      <c r="G182" s="25" t="s">
-        <v>689</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>15</v>
@@ -11096,25 +11093,25 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C183" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="D183" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="D183" s="16" t="s">
+      <c r="E183" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="F183" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="F183" s="13" t="s">
-        <v>693</v>
-      </c>
       <c r="G183" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="22.8" customHeight="1">
@@ -11123,17 +11120,17 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C184" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="E184" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="E184" s="13" t="s">
-        <v>696</v>
-      </c>
       <c r="F184" s="13" t="s">
         <v>15</v>
       </c>
@@ -11141,7 +11138,7 @@
         <v>15</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="22.8" customHeight="1">
@@ -11150,25 +11147,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C185" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="D185" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="D185" s="16" t="s">
+      <c r="E185" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="F185" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="F185" s="25" t="s">
-        <v>700</v>
-      </c>
       <c r="G185" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="22.8" customHeight="1">
@@ -11177,25 +11174,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D186" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="F186" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F186" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="G186" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="22.8" customHeight="1">
@@ -11204,25 +11201,25 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C187" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D187" s="16" t="s">
+      <c r="E187" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="F187" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="F187" s="25" t="s">
-        <v>707</v>
-      </c>
       <c r="G187" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="22.8" customHeight="1">
@@ -11231,25 +11228,25 @@
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C188" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D188" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="D188" s="16" t="s">
+      <c r="E188" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="F188" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="F188" s="25" t="s">
-        <v>711</v>
-      </c>
       <c r="G188" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="22.8" customHeight="1">
@@ -11258,11 +11255,11 @@
         <v>188</v>
       </c>
       <c r="B189" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="C189" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="C189" s="20" t="s">
-        <v>713</v>
-      </c>
       <c r="D189" s="16" t="s">
         <v>15</v>
       </c>
@@ -11276,7 +11273,7 @@
         <v>15</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="22.8" customHeight="1">
@@ -11285,17 +11282,17 @@
         <v>189</v>
       </c>
       <c r="B190" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="C190" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D190" s="26" t="s">
+      <c r="E190" s="25" t="s">
         <v>715</v>
       </c>
-      <c r="E190" s="25" t="s">
-        <v>716</v>
-      </c>
       <c r="F190" s="13" t="s">
         <v>15</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>15</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="22.8" customHeight="1">
@@ -11312,25 +11309,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D191" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D191" s="16" t="s">
+      <c r="E191" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="F191" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="F191" s="25" t="s">
-        <v>720</v>
-      </c>
       <c r="G191" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="22.8" customHeight="1">
@@ -11339,17 +11336,17 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C192" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="D192" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="D192" s="16" t="s">
+      <c r="E192" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="E192" s="13" t="s">
-        <v>724</v>
-      </c>
       <c r="F192" s="13" t="s">
         <v>15</v>
       </c>
@@ -11357,7 +11354,7 @@
         <v>15</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="22.8" customHeight="1">
@@ -11366,25 +11363,25 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C193" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="D193" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="D193" s="16" t="s">
+      <c r="E193" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="F193" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="F193" s="13" t="s">
-        <v>729</v>
-      </c>
       <c r="G193" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="22.8" customHeight="1">
@@ -11393,25 +11390,25 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C194" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D194" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="D194" s="16" t="s">
+      <c r="E194" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="F194" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="F194" s="25" t="s">
-        <v>733</v>
-      </c>
       <c r="G194" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="22.8" customHeight="1">
@@ -11420,25 +11417,25 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C195" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="D195" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="D195" s="16" t="s">
+      <c r="E195" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="E195" s="13" t="s">
+      <c r="F195" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="F195" s="25" t="s">
-        <v>738</v>
-      </c>
       <c r="G195" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="22.8" customHeight="1">
@@ -11450,13 +11447,13 @@
         <v>25</v>
       </c>
       <c r="C196" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D196" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="D196" s="16" t="s">
-        <v>740</v>
-      </c>
       <c r="E196" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F196" s="13" t="s">
         <v>15</v>
@@ -11465,7 +11462,7 @@
         <v>15</v>
       </c>
       <c r="H196" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="22.8" customHeight="1">
@@ -11474,25 +11471,25 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="D197" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="D197" s="16" t="s">
+      <c r="E197" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="F197" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="F197" s="25" t="s">
-        <v>745</v>
-      </c>
       <c r="G197" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="22.8" customHeight="1">
@@ -11501,25 +11498,25 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C198" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="D198" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="E198" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="E198" s="13" t="s">
+      <c r="F198" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="F198" s="13" t="s">
+      <c r="G198" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="G198" s="13" t="s">
-        <v>751</v>
-      </c>
       <c r="H198" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="22.8" customHeight="1">
@@ -11528,25 +11525,25 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C199" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="D199" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="D199" s="16" t="s">
+      <c r="E199" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="F199" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="F199" s="13" t="s">
-        <v>756</v>
-      </c>
       <c r="G199" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="22.8" customHeight="1">
@@ -11555,25 +11552,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="D200" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="D200" s="16" t="s">
+      <c r="E200" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E200" s="13" t="s">
+      <c r="F200" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="F200" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>761</v>
-      </c>
       <c r="H200" s="13" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="22.8" customHeight="1">
@@ -11582,25 +11579,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C201" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="D201" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D201" s="16" t="s">
+      <c r="E201" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="E201" s="13" t="s">
+      <c r="F201" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="F201" s="13" t="s">
-        <v>766</v>
-      </c>
       <c r="G201" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="22.8" customHeight="1">
@@ -11609,25 +11606,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C202" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="D202" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="D202" s="16" t="s">
+      <c r="E202" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="E202" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>770</v>
-      </c>
       <c r="G202" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="22.8" customHeight="1">
@@ -11636,25 +11633,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C203" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="D203" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="D203" s="16" t="s">
+      <c r="E203" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="E203" s="13" t="s">
+      <c r="F203" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="F203" s="13" t="s">
-        <v>774</v>
-      </c>
       <c r="G203" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="22.8" customHeight="1">
@@ -11663,10 +11660,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="C204" s="20" t="s">
         <v>775</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>776</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>15</v>
@@ -11690,25 +11687,25 @@
         <v>204</v>
       </c>
       <c r="B205" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="C205" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="D205" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="E205" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="E205" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F205" s="25" t="s">
-        <v>780</v>
-      </c>
       <c r="G205" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H205" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="22.8" customHeight="1">
@@ -11717,25 +11714,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="C206" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="D206" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="D206" s="16" t="s">
+      <c r="E206" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="E206" s="13" t="s">
+      <c r="F206" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="F206" s="25" t="s">
-        <v>785</v>
-      </c>
       <c r="G206" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="22.8" customHeight="1">
@@ -11744,25 +11741,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C207" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="C207" s="20" t="s">
+      <c r="D207" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="D207" s="16" t="s">
+      <c r="E207" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="F207" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="F207" s="25" t="s">
-        <v>790</v>
-      </c>
       <c r="G207" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H207" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="22.8" customHeight="1">
@@ -11771,17 +11768,17 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C208" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="D208" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="D208" s="16" t="s">
+      <c r="E208" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="E208" s="25" t="s">
-        <v>794</v>
-      </c>
       <c r="F208" s="13" t="s">
         <v>15</v>
       </c>
@@ -11789,7 +11786,7 @@
         <v>15</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="22.8" customHeight="1">
@@ -11798,14 +11795,14 @@
         <v>208</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C209" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="D209" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="D209" s="26" t="s">
-        <v>796</v>
-      </c>
       <c r="E209" s="13" t="s">
         <v>15</v>
       </c>
@@ -11816,7 +11813,7 @@
         <v>15</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="22.8" customHeight="1">
@@ -11825,17 +11822,17 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="D210" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="D210" s="16" t="s">
+      <c r="E210" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="E210" s="13" t="s">
-        <v>800</v>
-      </c>
       <c r="F210" s="13" t="s">
         <v>15</v>
       </c>
@@ -11843,7 +11840,7 @@
         <v>15</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="22.8" customHeight="1">
@@ -11852,25 +11849,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C211" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="D211" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="D211" s="16" t="s">
+      <c r="E211" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="F211" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="F211" s="13" t="s">
-        <v>805</v>
-      </c>
       <c r="G211" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="22.8" customHeight="1">
@@ -11879,25 +11876,25 @@
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C212" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="D212" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="D212" s="16" t="s">
+      <c r="E212" s="25" t="s">
         <v>808</v>
       </c>
-      <c r="E212" s="25" t="s">
+      <c r="F212" s="25" t="s">
         <v>809</v>
       </c>
-      <c r="F212" s="25" t="s">
-        <v>810</v>
-      </c>
       <c r="G212" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="22.8" customHeight="1">
@@ -11906,17 +11903,17 @@
         <v>212</v>
       </c>
       <c r="B213" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="C213" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C213" s="20" t="s">
+      <c r="D213" s="26" t="s">
         <v>812</v>
       </c>
-      <c r="D213" s="26" t="s">
+      <c r="E213" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="E213" s="25" t="s">
-        <v>814</v>
-      </c>
       <c r="F213" s="13" t="s">
         <v>15</v>
       </c>
@@ -11924,7 +11921,7 @@
         <v>15</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="22.8" customHeight="1">
@@ -11933,17 +11930,17 @@
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C214" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="D214" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="D214" s="16" t="s">
+      <c r="E214" s="25" t="s">
         <v>817</v>
       </c>
-      <c r="E214" s="25" t="s">
-        <v>818</v>
-      </c>
       <c r="F214" s="13" t="s">
         <v>15</v>
       </c>
@@ -11951,7 +11948,7 @@
         <v>15</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="22.8" customHeight="1">
@@ -11960,11 +11957,11 @@
         <v>214</v>
       </c>
       <c r="B215" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="C215" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="C215" s="20" t="s">
-        <v>820</v>
-      </c>
       <c r="D215" s="16" t="s">
         <v>15</v>
       </c>
@@ -11978,7 +11975,7 @@
         <v>15</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="22.8" customHeight="1">
@@ -11987,11 +11984,11 @@
         <v>215</v>
       </c>
       <c r="B216" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="C216" s="20" t="s">
-        <v>822</v>
-      </c>
       <c r="D216" s="16" t="s">
         <v>15</v>
       </c>
@@ -12005,7 +12002,7 @@
         <v>15</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="22.8" customHeight="1">
@@ -12014,14 +12011,14 @@
         <v>216</v>
       </c>
       <c r="B217" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C217" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="C217" s="20" t="s">
+      <c r="D217" s="26" t="s">
         <v>824</v>
       </c>
-      <c r="D217" s="26" t="s">
-        <v>825</v>
-      </c>
       <c r="E217" s="13" t="s">
         <v>15</v>
       </c>
@@ -12032,7 +12029,7 @@
         <v>15</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="22.8" customHeight="1">
@@ -12041,25 +12038,25 @@
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D218" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="C218" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="D218" s="16" t="s">
+      <c r="E218" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="E218" s="13" t="s">
+      <c r="F218" s="25" t="s">
         <v>828</v>
       </c>
-      <c r="F218" s="25" t="s">
-        <v>829</v>
-      </c>
       <c r="G218" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="22.8" customHeight="1">
@@ -12068,16 +12065,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="E219" s="13" t="s">
         <v>826</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="D219" s="16" t="s">
-        <v>831</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>827</v>
       </c>
       <c r="F219" s="13" t="s">
         <v>15</v>
@@ -12095,17 +12092,17 @@
         <v>219</v>
       </c>
       <c r="B220" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="D220" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="D220" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>834</v>
-      </c>
       <c r="F220" s="13" t="s">
         <v>15</v>
       </c>
@@ -12113,7 +12110,7 @@
         <v>15</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="22.8" customHeight="1">
@@ -12122,25 +12119,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="C221" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="C221" s="20" t="s">
+      <c r="D221" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="D221" s="16" t="s">
+      <c r="E221" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="F221" s="25" t="s">
         <v>838</v>
       </c>
-      <c r="F221" s="25" t="s">
-        <v>839</v>
-      </c>
       <c r="G221" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="22.8" customHeight="1">
@@ -12149,17 +12146,17 @@
         <v>221</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C222" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="D222" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="D222" s="26" t="s">
+      <c r="E222" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="E222" s="13" t="s">
-        <v>842</v>
-      </c>
       <c r="F222" s="13" t="s">
         <v>15</v>
       </c>
@@ -12167,7 +12164,7 @@
         <v>15</v>
       </c>
       <c r="H222" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="22.8" customHeight="1">
@@ -12176,17 +12173,17 @@
         <v>222</v>
       </c>
       <c r="B223" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="C223" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="D223" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="D223" s="16" t="s">
+      <c r="E223" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="E223" s="13" t="s">
-        <v>846</v>
-      </c>
       <c r="F223" s="13" t="s">
         <v>15</v>
       </c>
@@ -12194,7 +12191,7 @@
         <v>15</v>
       </c>
       <c r="H223" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="22.8" customHeight="1">
@@ -12203,25 +12200,25 @@
         <v>223</v>
       </c>
       <c r="B224" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="C224" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D224" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="C224" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D224" s="16" t="s">
+      <c r="E224" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="E224" s="13" t="s">
+      <c r="F224" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="F224" s="13" t="s">
-        <v>850</v>
-      </c>
       <c r="G224" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="22.8" customHeight="1">
@@ -12230,11 +12227,11 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C225" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="C225" s="20" t="s">
-        <v>852</v>
-      </c>
       <c r="D225" s="16" t="s">
         <v>15</v>
       </c>
@@ -12248,7 +12245,7 @@
         <v>15</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="22.8" customHeight="1">
@@ -12257,11 +12254,11 @@
         <v>225</v>
       </c>
       <c r="B226" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="C226" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C226" s="20" t="s">
-        <v>854</v>
-      </c>
       <c r="D226" s="16" t="s">
         <v>15</v>
       </c>
@@ -12275,7 +12272,7 @@
         <v>15</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="22.8" customHeight="1">
@@ -12284,17 +12281,17 @@
         <v>226</v>
       </c>
       <c r="B227" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C227" s="20" t="s">
         <v>855</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="D227" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="D227" s="16" t="s">
+      <c r="E227" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="E227" s="13" t="s">
-        <v>858</v>
-      </c>
       <c r="F227" s="13" t="s">
         <v>15</v>
       </c>
@@ -12302,7 +12299,7 @@
         <v>15</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="22.8" customHeight="1">
@@ -12311,17 +12308,17 @@
         <v>227</v>
       </c>
       <c r="B228" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C228" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="D228" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="D228" s="16" t="s">
+      <c r="E228" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="E228" s="13" t="s">
-        <v>862</v>
-      </c>
       <c r="F228" s="13" t="s">
         <v>15</v>
       </c>
@@ -12329,7 +12326,7 @@
         <v>15</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="22.8" customHeight="1">
@@ -12338,25 +12335,25 @@
         <v>228</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C229" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="C229" s="20" t="s">
+      <c r="D229" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="E229" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="E229" s="13" t="s">
+      <c r="F229" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="F229" s="13" t="s">
-        <v>867</v>
-      </c>
       <c r="G229" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="22.8" customHeight="1">
@@ -12365,25 +12362,25 @@
         <v>229</v>
       </c>
       <c r="B230" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C230" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="D230" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="D230" s="16" t="s">
+      <c r="E230" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="E230" s="13" t="s">
+      <c r="F230" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="F230" s="13" t="s">
-        <v>872</v>
-      </c>
       <c r="G230" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="22.8" customHeight="1">
@@ -12392,25 +12389,25 @@
         <v>230</v>
       </c>
       <c r="B231" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C231" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="D231" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="D231" s="16" t="s">
+      <c r="E231" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="E231" s="13" t="s">
+      <c r="F231" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="F231" s="13" t="s">
+      <c r="G231" s="27" t="s">
         <v>877</v>
       </c>
-      <c r="G231" s="27" t="s">
-        <v>878</v>
-      </c>
       <c r="H231" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="22.8" customHeight="1">
@@ -12419,19 +12416,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="C232" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="D232" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="D232" s="16" t="s">
+      <c r="E232" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E232" s="13" t="s">
+      <c r="F232" s="13" t="s">
         <v>882</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>883</v>
       </c>
       <c r="G232" s="13" t="s">
         <v>15</v>
@@ -12446,17 +12443,17 @@
         <v>232</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C233" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="D233" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="D233" s="16" t="s">
+      <c r="E233" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="E233" s="13" t="s">
-        <v>886</v>
-      </c>
       <c r="F233" s="13" t="s">
         <v>15</v>
       </c>
@@ -12464,7 +12461,7 @@
         <v>15</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="22.8" customHeight="1">
@@ -12473,25 +12470,25 @@
         <v>233</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C234" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="D234" s="16" t="s">
         <v>887</v>
       </c>
-      <c r="D234" s="16" t="s">
+      <c r="E234" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="E234" s="13" t="s">
+      <c r="F234" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="F234" s="13" t="s">
-        <v>890</v>
-      </c>
       <c r="G234" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H234" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="22.8" customHeight="1">
@@ -12500,11 +12497,11 @@
         <v>234</v>
       </c>
       <c r="B235" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="C235" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="C235" s="20" t="s">
-        <v>892</v>
-      </c>
       <c r="D235" s="16" t="s">
         <v>15</v>
       </c>
@@ -12518,7 +12515,7 @@
         <v>15</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="22.8" customHeight="1">
@@ -12527,17 +12524,17 @@
         <v>235</v>
       </c>
       <c r="B236" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C236" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="C236" s="20" t="s">
+      <c r="D236" s="16" t="s">
         <v>894</v>
       </c>
-      <c r="D236" s="16" t="s">
+      <c r="E236" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="E236" s="13" t="s">
-        <v>896</v>
-      </c>
       <c r="F236" s="13" t="s">
         <v>15</v>
       </c>
@@ -12545,7 +12542,7 @@
         <v>15</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="22.8" customHeight="1">
@@ -12554,17 +12551,17 @@
         <v>236</v>
       </c>
       <c r="B237" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="C237" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="D237" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="D237" s="26" t="s">
+      <c r="E237" s="25" t="s">
         <v>899</v>
       </c>
-      <c r="E237" s="25" t="s">
-        <v>900</v>
-      </c>
       <c r="F237" s="13" t="s">
         <v>15</v>
       </c>
@@ -12572,7 +12569,7 @@
         <v>15</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="22.8" customHeight="1">
@@ -12581,17 +12578,17 @@
         <v>237</v>
       </c>
       <c r="B238" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C238" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="D238" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="D238" s="16" t="s">
+      <c r="E238" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="E238" s="13" t="s">
-        <v>904</v>
-      </c>
       <c r="F238" s="13" t="s">
         <v>15</v>
       </c>
@@ -12599,7 +12596,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="22.8" customHeight="1">
@@ -12608,16 +12605,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="C239" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="C239" s="20" t="s">
+      <c r="D239" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="D239" s="16" t="s">
+      <c r="E239" s="13" t="s">
         <v>907</v>
-      </c>
-      <c r="E239" s="13" t="s">
-        <v>908</v>
       </c>
       <c r="F239" s="13" t="s">
         <v>15</v>
@@ -12635,17 +12632,17 @@
         <v>239</v>
       </c>
       <c r="B240" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="D240" s="16" t="s">
         <v>909</v>
       </c>
-      <c r="C240" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="D240" s="16" t="s">
+      <c r="E240" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="E240" s="13" t="s">
-        <v>911</v>
-      </c>
       <c r="F240" s="13" t="s">
         <v>15</v>
       </c>
@@ -12653,7 +12650,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="22.8" customHeight="1">
@@ -12662,25 +12659,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C241" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D241" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="C241" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="D241" s="16" t="s">
+      <c r="E241" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="E241" s="25" t="s">
+      <c r="F241" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="F241" s="13" t="s">
-        <v>915</v>
-      </c>
       <c r="G241" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H241" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="22.8" customHeight="1">
@@ -12689,17 +12686,17 @@
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D242" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="E242" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="E242" s="13" t="s">
-        <v>917</v>
-      </c>
       <c r="F242" s="13" t="s">
         <v>15</v>
       </c>
@@ -12707,7 +12704,7 @@
         <v>15</v>
       </c>
       <c r="H242" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="22.8" customHeight="1">
@@ -12716,17 +12713,17 @@
         <v>242</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C243" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="D243" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="D243" s="26" t="s">
+      <c r="E243" s="25" t="s">
         <v>919</v>
       </c>
-      <c r="E243" s="25" t="s">
-        <v>920</v>
-      </c>
       <c r="F243" s="13" t="s">
         <v>15</v>
       </c>
@@ -12734,7 +12731,7 @@
         <v>15</v>
       </c>
       <c r="H243" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="22.8" customHeight="1">
@@ -12743,17 +12740,17 @@
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C244" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="D244" s="16" t="s">
         <v>921</v>
       </c>
-      <c r="D244" s="16" t="s">
+      <c r="E244" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="E244" s="13" t="s">
-        <v>923</v>
-      </c>
       <c r="F244" s="13" t="s">
         <v>15</v>
       </c>
@@ -12761,7 +12758,7 @@
         <v>15</v>
       </c>
       <c r="H244" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="22.8" customHeight="1">
@@ -12770,25 +12767,25 @@
         <v>244</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C245" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="D245" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="D245" s="16" t="s">
+      <c r="E245" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="E245" s="25" t="s">
+      <c r="F245" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="F245" s="25" t="s">
-        <v>927</v>
-      </c>
       <c r="G245" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="22.8" customHeight="1">
@@ -12797,17 +12794,17 @@
         <v>245</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C246" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="D246" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="D246" s="16" t="s">
+      <c r="E246" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="E246" s="13" t="s">
-        <v>930</v>
-      </c>
       <c r="F246" s="13" t="s">
         <v>15</v>
       </c>
@@ -12815,7 +12812,7 @@
         <v>15</v>
       </c>
       <c r="H246" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="22.8" customHeight="1">
@@ -12824,25 +12821,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C247" s="20" t="s">
         <v>931</v>
       </c>
-      <c r="C247" s="20" t="s">
+      <c r="D247" s="16" t="s">
         <v>932</v>
       </c>
-      <c r="D247" s="16" t="s">
+      <c r="E247" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="E247" s="13" t="s">
+      <c r="F247" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="F247" s="13" t="s">
-        <v>935</v>
-      </c>
       <c r="G247" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="22.8" customHeight="1">
@@ -12851,25 +12848,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C248" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="D248" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="D248" s="16" t="s">
+      <c r="E248" s="25" t="s">
         <v>938</v>
       </c>
-      <c r="E248" s="25" t="s">
+      <c r="F248" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="F248" s="13" t="s">
-        <v>940</v>
-      </c>
       <c r="G248" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H248" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="22.8" customHeight="1">
@@ -12878,17 +12875,17 @@
         <v>248</v>
       </c>
       <c r="B249" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="C249" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="D249" s="16" t="s">
         <v>942</v>
       </c>
-      <c r="D249" s="16" t="s">
+      <c r="E249" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="E249" s="25" t="s">
-        <v>944</v>
-      </c>
       <c r="F249" s="13" t="s">
         <v>15</v>
       </c>
@@ -12896,7 +12893,7 @@
         <v>15</v>
       </c>
       <c r="H249" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="22.8" customHeight="1">
@@ -12905,25 +12902,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C250" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D250" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="D250" s="16" t="s">
+      <c r="E250" s="36" t="s">
         <v>946</v>
       </c>
-      <c r="E250" s="13" t="s">
+      <c r="F250" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="F250" s="13" t="s">
-        <v>948</v>
-      </c>
       <c r="G250" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="22.8" customHeight="1">
@@ -12932,11 +12929,11 @@
         <v>250</v>
       </c>
       <c r="B251" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="C251" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="C251" s="20" t="s">
-        <v>950</v>
-      </c>
       <c r="D251" s="16" t="s">
         <v>15</v>
       </c>
@@ -12950,7 +12947,7 @@
         <v>15</v>
       </c>
       <c r="H251" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="22.8" customHeight="1">
@@ -12959,14 +12956,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C252" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="C252" s="20" t="s">
+      <c r="D252" s="26" t="s">
         <v>952</v>
       </c>
-      <c r="D252" s="26" t="s">
-        <v>953</v>
-      </c>
       <c r="E252" s="13" t="s">
         <v>15</v>
       </c>
@@ -12977,7 +12974,7 @@
         <v>15</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="22.8" customHeight="1">
@@ -12986,25 +12983,25 @@
         <v>252</v>
       </c>
       <c r="B253" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C253" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="C253" s="20" t="s">
+      <c r="D253" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="D253" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253" s="13" t="s">
+      <c r="F253" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="F253" s="13" t="s">
-        <v>957</v>
-      </c>
       <c r="G253" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="22.8" customHeight="1">
@@ -13013,25 +13010,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="C254" s="20" t="s">
         <v>958</v>
       </c>
-      <c r="C254" s="20" t="s">
+      <c r="D254" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="D254" s="16" t="s">
+      <c r="E254" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="E254" s="13" t="s">
+      <c r="F254" s="25" t="s">
         <v>961</v>
       </c>
-      <c r="F254" s="25" t="s">
-        <v>962</v>
-      </c>
       <c r="G254" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="13" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="22.8" customHeight="1">
@@ -13040,11 +13037,11 @@
         <v>254</v>
       </c>
       <c r="B255" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="C255" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="C255" s="20" t="s">
-        <v>964</v>
-      </c>
       <c r="D255" s="16" t="s">
         <v>15</v>
       </c>
@@ -13058,7 +13055,7 @@
         <v>15</v>
       </c>
       <c r="H255" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="22.8" customHeight="1">
@@ -13067,16 +13064,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="C256" s="20" t="s">
         <v>965</v>
       </c>
-      <c r="C256" s="20" t="s">
+      <c r="D256" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="D256" s="16" t="s">
+      <c r="E256" s="13" t="s">
         <v>967</v>
-      </c>
-      <c r="E256" s="13" t="s">
-        <v>968</v>
       </c>
       <c r="F256" s="13" t="s">
         <v>15</v>
@@ -13094,25 +13091,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="D257" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="C257" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="D257" s="16" t="s">
+      <c r="E257" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="E257" s="13" t="s">
+      <c r="F257" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="F257" s="25" t="s">
+      <c r="G257" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="G257" s="13" t="s">
-        <v>973</v>
-      </c>
       <c r="H257" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="22.8" customHeight="1">
@@ -13121,17 +13118,17 @@
         <v>257</v>
       </c>
       <c r="B258" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C258" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="D258" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="D258" s="16" t="s">
+      <c r="E258" s="36" t="s">
         <v>976</v>
       </c>
-      <c r="E258" s="13" t="s">
-        <v>977</v>
-      </c>
       <c r="F258" s="13" t="s">
         <v>15</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>15</v>
       </c>
       <c r="H258" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="22.8" customHeight="1">
@@ -13148,22 +13145,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D259" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="C259" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D259" s="16" t="s">
+      <c r="E259" s="36" t="s">
         <v>979</v>
       </c>
-      <c r="E259" s="13" t="s">
+      <c r="F259" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" s="13" t="s">
         <v>980</v>
-      </c>
-      <c r="F259" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" s="13" t="s">
-        <v>981</v>
       </c>
       <c r="H259" s="13" t="s">
         <v>15</v>
@@ -13175,25 +13172,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C260" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="D260" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="D260" s="16" t="s">
+      <c r="E260" s="36" t="s">
         <v>983</v>
       </c>
-      <c r="E260" s="13" t="s">
+      <c r="F260" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="F260" s="13" t="s">
-        <v>985</v>
-      </c>
       <c r="G260" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H260" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="22.8" customHeight="1">
@@ -13202,25 +13199,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C261" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="D261" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="D261" s="16" t="s">
+      <c r="E261" s="36" t="s">
         <v>987</v>
       </c>
-      <c r="E261" s="13" t="s">
+      <c r="F261" s="25" t="s">
         <v>988</v>
       </c>
-      <c r="F261" s="25" t="s">
+      <c r="G261" s="25" t="s">
         <v>989</v>
       </c>
-      <c r="G261" s="25" t="s">
-        <v>990</v>
-      </c>
       <c r="H261" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="22.8" customHeight="1">
@@ -13229,17 +13226,17 @@
         <v>261</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C262" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="36" t="s">
         <v>991</v>
       </c>
-      <c r="D262" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" s="13" t="s">
-        <v>992</v>
-      </c>
       <c r="F262" s="13" t="s">
         <v>15</v>
       </c>
@@ -13247,7 +13244,7 @@
         <v>15</v>
       </c>
       <c r="H262" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="22.8" customHeight="1">
@@ -13256,17 +13253,17 @@
         <v>262</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C263" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>993</v>
       </c>
-      <c r="D263" s="16" t="s">
+      <c r="E263" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="E263" s="13" t="s">
-        <v>995</v>
-      </c>
       <c r="F263" s="13" t="s">
         <v>15</v>
       </c>
@@ -13274,7 +13271,7 @@
         <v>15</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="22.8" customHeight="1">
@@ -13283,25 +13280,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C264" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="D264" s="16" t="s">
         <v>996</v>
       </c>
-      <c r="D264" s="16" t="s">
+      <c r="E264" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="E264" s="13" t="s">
+      <c r="F264" s="25" t="s">
         <v>998</v>
       </c>
-      <c r="F264" s="25" t="s">
-        <v>999</v>
-      </c>
       <c r="G264" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="22.8" customHeight="1">
@@ -13310,25 +13307,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C265" s="20" t="s">
         <v>1000</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="D265" s="26" t="s">
         <v>1001</v>
       </c>
-      <c r="D265" s="26" t="s">
+      <c r="E265" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="E265" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F265" s="13" t="s">
-        <v>1003</v>
-      </c>
       <c r="G265" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H265" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="22.8" customHeight="1">
@@ -13337,11 +13334,11 @@
         <v>265</v>
       </c>
       <c r="B266" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C266" s="20" t="s">
         <v>1004</v>
       </c>
-      <c r="C266" s="20" t="s">
-        <v>1005</v>
-      </c>
       <c r="D266" s="16" t="s">
         <v>15</v>
       </c>
@@ -13355,7 +13352,7 @@
         <v>15</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="22.8" customHeight="1">
@@ -13364,25 +13361,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C267" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="C267" s="20" t="s">
+      <c r="D267" s="16" t="s">
         <v>1007</v>
       </c>
-      <c r="D267" s="16" t="s">
+      <c r="E267" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="E267" s="13" t="s">
+      <c r="F267" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="F267" s="13" t="s">
+      <c r="G267" s="36" t="s">
         <v>1010</v>
       </c>
-      <c r="G267" s="36" t="s">
-        <v>1011</v>
-      </c>
       <c r="H267" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="22.8" customHeight="1">
@@ -13391,17 +13388,17 @@
         <v>267</v>
       </c>
       <c r="B268" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C268" s="20" t="s">
         <v>1012</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="D268" s="16" t="s">
         <v>1013</v>
       </c>
-      <c r="D268" s="16" t="s">
+      <c r="E268" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="E268" s="13" t="s">
-        <v>1015</v>
-      </c>
       <c r="F268" s="13" t="s">
         <v>15</v>
       </c>
@@ -13409,7 +13406,7 @@
         <v>15</v>
       </c>
       <c r="H268" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="22.8" customHeight="1">
@@ -13418,16 +13415,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C269" s="20" t="s">
         <v>1016</v>
       </c>
-      <c r="C269" s="20" t="s">
+      <c r="D269" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="D269" s="28" t="s">
-        <v>1018</v>
-      </c>
       <c r="E269" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F269" s="13" t="s">
         <v>15</v>
@@ -13436,7 +13433,7 @@
         <v>15</v>
       </c>
       <c r="H269" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="22.8" customHeight="1">
@@ -13445,25 +13442,25 @@
         <v>269</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C270" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D270" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="D270" s="16" t="s">
+      <c r="E270" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="E270" s="13" t="s">
+      <c r="F270" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="F270" s="13" t="s">
-        <v>1022</v>
-      </c>
       <c r="G270" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H270" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="22.8" customHeight="1">
@@ -13472,17 +13469,17 @@
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C271" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="D271" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="D271" s="28" t="s">
+      <c r="E271" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="E271" s="13" t="s">
-        <v>1026</v>
-      </c>
       <c r="F271" s="13" t="s">
         <v>15</v>
       </c>
@@ -13490,7 +13487,7 @@
         <v>15</v>
       </c>
       <c r="H271" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="22.8" customHeight="1">
@@ -13499,17 +13496,17 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="D272" s="16" t="s">
         <v>1027</v>
       </c>
-      <c r="C272" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="D272" s="16" t="s">
+      <c r="E272" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="E272" s="13" t="s">
-        <v>1029</v>
-      </c>
       <c r="F272" s="13" t="s">
         <v>15</v>
       </c>
@@ -13517,7 +13514,7 @@
         <v>15</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="22.8" customHeight="1">
@@ -13526,25 +13523,25 @@
         <v>272</v>
       </c>
       <c r="B273" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C273" s="20" t="s">
         <v>1030</v>
       </c>
-      <c r="C273" s="20" t="s">
+      <c r="D273" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="D273" s="28" t="s">
+      <c r="E273" s="29" t="s">
         <v>1032</v>
       </c>
-      <c r="E273" s="29" t="s">
+      <c r="F273" s="29" t="s">
         <v>1033</v>
       </c>
-      <c r="F273" s="29" t="s">
-        <v>1034</v>
-      </c>
       <c r="G273" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H273" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="22.8" customHeight="1">
@@ -13553,25 +13550,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C274" s="20" t="s">
         <v>1035</v>
       </c>
-      <c r="C274" s="20" t="s">
+      <c r="D274" s="38" t="s">
         <v>1036</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="E274" s="36" t="s">
         <v>1037</v>
       </c>
-      <c r="E274" s="13" t="s">
+      <c r="F274" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="F274" s="13" t="s">
-        <v>1039</v>
-      </c>
       <c r="G274" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="22.8" customHeight="1">
@@ -13580,25 +13577,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C275" s="20" t="s">
         <v>1040</v>
       </c>
-      <c r="C275" s="20" t="s">
+      <c r="D275" s="28" t="s">
         <v>1041</v>
       </c>
-      <c r="D275" s="28" t="s">
+      <c r="E275" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="E275" s="13" t="s">
+      <c r="F275" s="30" t="s">
         <v>1043</v>
       </c>
-      <c r="F275" s="30" t="s">
-        <v>1044</v>
-      </c>
       <c r="G275" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H275" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="22.8" customHeight="1">
@@ -13607,25 +13604,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>1045</v>
       </c>
-      <c r="C276" s="20" t="s">
+      <c r="D276" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="D276" s="16" t="s">
+      <c r="E276" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="E276" s="13" t="s">
+      <c r="F276" s="31" t="s">
         <v>1048</v>
       </c>
-      <c r="F276" s="31" t="s">
-        <v>1049</v>
-      </c>
       <c r="G276" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H276" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="22.8" customHeight="1">
@@ -13634,25 +13631,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D277" s="28" t="s">
         <v>1050</v>
       </c>
-      <c r="C277" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="D277" s="28" t="s">
+      <c r="E277" s="29" t="s">
         <v>1051</v>
       </c>
-      <c r="E277" s="29" t="s">
+      <c r="F277" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="F277" s="13" t="s">
-        <v>1053</v>
-      </c>
       <c r="G277" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H277" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="22.8" customHeight="1">
@@ -13661,11 +13658,11 @@
         <v>277</v>
       </c>
       <c r="B278" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C278" s="20" t="s">
         <v>1054</v>
       </c>
-      <c r="C278" s="20" t="s">
-        <v>1055</v>
-      </c>
       <c r="D278" s="16" t="s">
         <v>15</v>
       </c>
@@ -13679,7 +13676,7 @@
         <v>15</v>
       </c>
       <c r="H278" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="22.8" customHeight="1">
@@ -13688,25 +13685,25 @@
         <v>278</v>
       </c>
       <c r="B279" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C279" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="D279" s="28" t="s">
         <v>1057</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="E279" s="29" t="s">
         <v>1058</v>
       </c>
-      <c r="E279" s="29" t="s">
+      <c r="F279" s="29" t="s">
         <v>1059</v>
       </c>
-      <c r="F279" s="29" t="s">
-        <v>1060</v>
-      </c>
       <c r="G279" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H279" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="22.8" customHeight="1">
@@ -13715,11 +13712,11 @@
         <v>279</v>
       </c>
       <c r="B280" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C280" s="20" t="s">
         <v>1061</v>
       </c>
-      <c r="C280" s="20" t="s">
-        <v>1062</v>
-      </c>
       <c r="D280" s="16" t="s">
         <v>15</v>
       </c>
@@ -13733,7 +13730,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="22.8" customHeight="1">
@@ -13742,17 +13739,17 @@
         <v>280</v>
       </c>
       <c r="B281" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C281" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="D281" s="28" t="s">
         <v>1064</v>
       </c>
-      <c r="D281" s="28" t="s">
+      <c r="E281" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="E281" s="13" t="s">
-        <v>1066</v>
-      </c>
       <c r="F281" s="13" t="s">
         <v>15</v>
       </c>
@@ -13760,7 +13757,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="22.8" customHeight="1">
@@ -13769,17 +13766,17 @@
         <v>281</v>
       </c>
       <c r="B282" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C282" s="20" t="s">
         <v>1067</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="D282" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="29" t="s">
         <v>1068</v>
       </c>
-      <c r="D282" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E282" s="29" t="s">
-        <v>1069</v>
-      </c>
       <c r="F282" s="13" t="s">
         <v>15</v>
       </c>
@@ -13787,7 +13784,7 @@
         <v>15</v>
       </c>
       <c r="H282" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="22.8" customHeight="1">
@@ -13796,14 +13793,14 @@
         <v>282</v>
       </c>
       <c r="B283" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C283" s="20" t="s">
         <v>1070</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="D283" s="16" t="s">
         <v>1071</v>
       </c>
-      <c r="D283" s="16" t="s">
-        <v>1072</v>
-      </c>
       <c r="E283" s="13" t="s">
         <v>15</v>
       </c>
@@ -13814,7 +13811,7 @@
         <v>15</v>
       </c>
       <c r="H283" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="22.8" customHeight="1">
@@ -13823,14 +13820,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C284" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D284" s="16" t="s">
         <v>1073</v>
       </c>
-      <c r="D284" s="16" t="s">
-        <v>1074</v>
-      </c>
       <c r="E284" s="13" t="s">
         <v>15</v>
       </c>
@@ -13841,7 +13838,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="22.8" customHeight="1">
@@ -13850,17 +13847,17 @@
         <v>284</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C285" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D285" s="16" t="s">
         <v>1075</v>
       </c>
-      <c r="D285" s="16" t="s">
+      <c r="E285" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="E285" s="13" t="s">
-        <v>1077</v>
-      </c>
       <c r="F285" s="13" t="s">
         <v>15</v>
       </c>
@@ -13868,7 +13865,7 @@
         <v>15</v>
       </c>
       <c r="H285" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="22.8" customHeight="1">
@@ -13877,17 +13874,17 @@
         <v>285</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C286" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D286" s="16" t="s">
         <v>1078</v>
       </c>
-      <c r="D286" s="16" t="s">
+      <c r="E286" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="E286" s="13" t="s">
-        <v>1080</v>
-      </c>
       <c r="F286" s="13" t="s">
         <v>15</v>
       </c>
@@ -13895,7 +13892,7 @@
         <v>15</v>
       </c>
       <c r="H286" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="29.7" customHeight="1">
@@ -13904,17 +13901,17 @@
         <v>286</v>
       </c>
       <c r="B287" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C287" s="20" t="s">
         <v>1081</v>
       </c>
-      <c r="C287" s="20" t="s">
+      <c r="D287" s="16" t="s">
         <v>1082</v>
       </c>
-      <c r="D287" s="16" t="s">
+      <c r="E287" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="E287" s="13" t="s">
-        <v>1084</v>
-      </c>
       <c r="F287" s="13" t="s">
         <v>15</v>
       </c>
@@ -13922,7 +13919,7 @@
         <v>15</v>
       </c>
       <c r="H287" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="22.8" customHeight="1">
@@ -13931,10 +13928,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C288" s="34" t="s">
         <v>1085</v>
-      </c>
-      <c r="C288" s="34" t="s">
-        <v>1086</v>
       </c>
       <c r="D288" s="16" t="s">
         <v>15</v>
@@ -13958,14 +13955,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C289" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="C289" s="34" t="s">
+      <c r="D289" s="16" t="s">
         <v>1088</v>
       </c>
-      <c r="D289" s="16" t="s">
-        <v>1089</v>
-      </c>
       <c r="E289" s="13" t="s">
         <v>15</v>
       </c>
@@ -13976,7 +13973,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="22.8" customHeight="1">
@@ -13985,10 +13982,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C290" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D290" s="16" t="s">
         <v>15</v>
@@ -14089,6 +14086,14 @@
     <hyperlink ref="D160" r:id="rId79" xr:uid="{63DFCCDC-AA7B-42FA-AEEC-FFE499355436}"/>
     <hyperlink ref="D274" r:id="rId80" xr:uid="{B05E36EB-53BF-4001-A0CA-51F5D1E0AED3}"/>
     <hyperlink ref="G267" r:id="rId81" xr:uid="{6F81A2D9-822A-4526-AE47-389E76E7CDB3}"/>
+    <hyperlink ref="E276" r:id="rId82" xr:uid="{475F9800-9DAF-483E-AD67-B9CAC82371E3}"/>
+    <hyperlink ref="E274" r:id="rId83" xr:uid="{88038CB3-9B73-4F64-9117-2B28973F2D3A}"/>
+    <hyperlink ref="E250" r:id="rId84" xr:uid="{EA5DD6C6-85DB-4851-AD20-5E4B8D9F93E1}"/>
+    <hyperlink ref="E262" r:id="rId85" xr:uid="{6B0417FD-CA9F-4935-854C-9A180A2A5C10}"/>
+    <hyperlink ref="E261" r:id="rId86" xr:uid="{AF062824-F976-426F-9B65-B4647FCADD38}"/>
+    <hyperlink ref="E260" r:id="rId87" xr:uid="{A25DE5CC-5BFE-42A8-99E0-53E179B31C5A}"/>
+    <hyperlink ref="E258" r:id="rId88" xr:uid="{6ACB97E9-307B-45F8-B41F-79B78A244BA9}"/>
+    <hyperlink ref="E259" r:id="rId89" xr:uid="{94A7B252-CBC4-406E-8F21-1385A092DB5A}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/web_scrape/Scraping_Sheet_Short.xlsx
+++ b/web_scrape/Scraping_Sheet_Short.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalip\OneDrive\Documents\physician_web_scraper\web_scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576BA1D-ACE9-4D49-8273-3E4750C8CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F10316-F5D1-47EA-8237-7A0AAC469BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - American Head and Nec" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1293">
   <si>
     <t>ID</t>
   </si>
@@ -4516,7 +4517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4579,6 +4580,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4875,7 +4882,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4994,6 +5001,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6159,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -6622,8 +6635,8 @@
       <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>60</v>
+      <c r="F17" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>62</v>
@@ -7459,7 +7472,7 @@
       <c r="E48" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="36" t="s">
         <v>177</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -14031,7 +14044,7 @@
     <hyperlink ref="E16" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
     <hyperlink ref="D17" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
     <hyperlink ref="E17" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="F17" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="F17" r:id="rId27" display="https://www.healthgrades.com/physician/dr-amy-chen-x4768" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
     <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
     <hyperlink ref="D20" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
     <hyperlink ref="E20" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
@@ -14094,6 +14107,7 @@
     <hyperlink ref="E260" r:id="rId87" xr:uid="{A25DE5CC-5BFE-42A8-99E0-53E179B31C5A}"/>
     <hyperlink ref="E258" r:id="rId88" xr:uid="{6ACB97E9-307B-45F8-B41F-79B78A244BA9}"/>
     <hyperlink ref="E259" r:id="rId89" xr:uid="{94A7B252-CBC4-406E-8F21-1385A092DB5A}"/>
+    <hyperlink ref="F48" r:id="rId90" xr:uid="{5C691963-902F-4604-9F12-4A113559D4F2}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -14101,4 +14115,3264 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27852A61-7B38-4839-9814-C6FBEBE0A2AE}">
+  <dimension ref="A1:J289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="41">
+        <f>COUNTIF($A$1:$B$289,"N/A")</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.8">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.8">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.8">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.8">
+      <c r="A11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.8">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.8">
+      <c r="A14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.8">
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6">
+      <c r="A16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.8">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.8">
+      <c r="A18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.8">
+      <c r="A19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6">
+      <c r="A20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.8">
+      <c r="A21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.8">
+      <c r="A23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="A24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="A25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.8">
+      <c r="A26" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.8">
+      <c r="A27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.8">
+      <c r="A28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.8">
+      <c r="A29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.8">
+      <c r="A30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.8">
+      <c r="A31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.8">
+      <c r="A32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.8">
+      <c r="A33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.8">
+      <c r="A34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.8">
+      <c r="A35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.8">
+      <c r="A36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.8">
+      <c r="A37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.8">
+      <c r="A38" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6">
+      <c r="A39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.8">
+      <c r="A40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6">
+      <c r="A41" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.8">
+      <c r="A42" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.8">
+      <c r="A43" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.8">
+      <c r="A44" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.8">
+      <c r="A45" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.8">
+      <c r="A46" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.8">
+      <c r="A47" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.8">
+      <c r="A48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.8">
+      <c r="A49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.8">
+      <c r="A50" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13.8">
+      <c r="A51" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.8">
+      <c r="A52" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.8">
+      <c r="A53" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.8">
+      <c r="A54" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.8">
+      <c r="A55" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.8">
+      <c r="A56" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13.8">
+      <c r="A57" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13.8">
+      <c r="A58" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.8">
+      <c r="A59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.8">
+      <c r="A60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.8">
+      <c r="A61" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13.8">
+      <c r="A62" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.8">
+      <c r="A63" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.8">
+      <c r="A64" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.8">
+      <c r="A65" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13.8">
+      <c r="A66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13.8">
+      <c r="A67" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13.8">
+      <c r="A68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13.8">
+      <c r="A69" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13.8">
+      <c r="A70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13.8">
+      <c r="A71" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13.8">
+      <c r="A72" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13.8">
+      <c r="A73" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13.8">
+      <c r="A74" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13.8">
+      <c r="A75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13.8">
+      <c r="A76" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13.8">
+      <c r="A77" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13.8">
+      <c r="A78" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13.8">
+      <c r="A79" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13.8">
+      <c r="A80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13.8">
+      <c r="A81" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13.8">
+      <c r="A82" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13.8">
+      <c r="A83" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13.8">
+      <c r="A84" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13.8">
+      <c r="A85" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13.8">
+      <c r="A86" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13.8">
+      <c r="A87" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13.8">
+      <c r="A88" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13.8">
+      <c r="A89" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13.8">
+      <c r="A90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13.8">
+      <c r="A91" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13.8">
+      <c r="A92" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13.8">
+      <c r="A93" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13.8">
+      <c r="A94" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13.8">
+      <c r="A95" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13.8">
+      <c r="A96" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13.8">
+      <c r="A97" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13.8">
+      <c r="A98" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="79.2">
+      <c r="A99" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="79.2">
+      <c r="A100" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13.8">
+      <c r="A101" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13.8">
+      <c r="A102" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13.8">
+      <c r="A103" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13.8">
+      <c r="A104" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13.8">
+      <c r="A105" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13.8">
+      <c r="A106" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13.8">
+      <c r="A107" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13.8">
+      <c r="A108" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13.8">
+      <c r="A109" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13.8">
+      <c r="A110" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13.8">
+      <c r="A111" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13.8">
+      <c r="A112" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13.8">
+      <c r="A113" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13.8">
+      <c r="A114" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13.8">
+      <c r="A115" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13.8">
+      <c r="A116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13.8">
+      <c r="A117" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13.8">
+      <c r="A118" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13.8">
+      <c r="A119" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13.8">
+      <c r="A120" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13.8">
+      <c r="A121" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13.8">
+      <c r="A122" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13.8">
+      <c r="A123" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13.8">
+      <c r="A124" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13.8">
+      <c r="A125" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13.8">
+      <c r="A126" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13.8">
+      <c r="A127" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13.8">
+      <c r="A128" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13.8">
+      <c r="A129" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13.8">
+      <c r="A130" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13.8">
+      <c r="A131" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13.8">
+      <c r="A132" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13.8">
+      <c r="A133" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13.8">
+      <c r="A134" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13.8">
+      <c r="A135" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13.8">
+      <c r="A136" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13.8">
+      <c r="A137" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13.8">
+      <c r="A138" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13.8">
+      <c r="A139" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13.8">
+      <c r="A140" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13.8">
+      <c r="A141" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13.8">
+      <c r="A142" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13.8">
+      <c r="A143" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13.8">
+      <c r="A144" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13.8">
+      <c r="A145" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13.8">
+      <c r="A146" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13.8">
+      <c r="A147" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13.8">
+      <c r="A148" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13.8">
+      <c r="A149" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13.8">
+      <c r="A150" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13.8">
+      <c r="A151" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13.8">
+      <c r="A152" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13.8">
+      <c r="A153" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13.8">
+      <c r="A154" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13.8">
+      <c r="A155" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13.8">
+      <c r="A156" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13.8">
+      <c r="A157" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13.8">
+      <c r="A158" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13.8">
+      <c r="A159" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13.8">
+      <c r="A160" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13.8">
+      <c r="A161" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13.8">
+      <c r="A162" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13.8">
+      <c r="A163" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13.8">
+      <c r="A164" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13.8">
+      <c r="A165" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13.8">
+      <c r="A166" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13.8">
+      <c r="A167" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13.8">
+      <c r="A168" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13.8">
+      <c r="A169" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13.8">
+      <c r="A170" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13.8">
+      <c r="A171" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13.8">
+      <c r="A172" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13.8">
+      <c r="A173" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13.8">
+      <c r="A174" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13.8">
+      <c r="A175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13.8">
+      <c r="A176" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13.8">
+      <c r="A177" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13.8">
+      <c r="A178" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13.8">
+      <c r="A179" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13.8">
+      <c r="A180" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13.8">
+      <c r="A181" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13.8">
+      <c r="A182" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13.8">
+      <c r="A183" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="13.8">
+      <c r="A184" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13.8">
+      <c r="A185" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13.8">
+      <c r="A186" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13.8">
+      <c r="A187" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13.8">
+      <c r="A188" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13.8">
+      <c r="A189" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="13.8">
+      <c r="A190" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13.8">
+      <c r="A191" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13.8">
+      <c r="A192" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13.8">
+      <c r="A193" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13.8">
+      <c r="A194" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13.8">
+      <c r="A195" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13.8">
+      <c r="A196" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13.8">
+      <c r="A197" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13.8">
+      <c r="A198" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13.8">
+      <c r="A199" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13.8">
+      <c r="A200" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13.8">
+      <c r="A201" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13.8">
+      <c r="A202" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13.8">
+      <c r="A203" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="13.8">
+      <c r="A204" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="13.8">
+      <c r="A205" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13.8">
+      <c r="A206" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13.8">
+      <c r="A207" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13.8">
+      <c r="A208" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13.8">
+      <c r="A209" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13.8">
+      <c r="A210" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13.8">
+      <c r="A211" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13.8">
+      <c r="A212" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13.8">
+      <c r="A213" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13.8">
+      <c r="A214" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="13.8">
+      <c r="A215" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="13.8">
+      <c r="A216" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="13.8">
+      <c r="A217" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="13.8">
+      <c r="A218" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13.8">
+      <c r="A219" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13.8">
+      <c r="A220" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13.8">
+      <c r="A221" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13.8">
+      <c r="A222" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13.8">
+      <c r="A223" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13.8">
+      <c r="A224" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13.8">
+      <c r="A225" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13.8">
+      <c r="A226" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13.8">
+      <c r="A227" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13.8">
+      <c r="A228" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13.8">
+      <c r="A229" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13.8">
+      <c r="A230" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13.8">
+      <c r="A231" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="13.8">
+      <c r="A232" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13.8">
+      <c r="A233" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="13.8">
+      <c r="A234" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13.8">
+      <c r="A235" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13.8">
+      <c r="A236" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="13.8">
+      <c r="A237" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="13.8">
+      <c r="A238" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="13.8">
+      <c r="A239" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="13.8">
+      <c r="A240" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="13.8">
+      <c r="A241" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="13.8">
+      <c r="A242" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="13.8">
+      <c r="A243" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="13.8">
+      <c r="A244" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="13.8">
+      <c r="A245" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="13.8">
+      <c r="A246" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="13.8">
+      <c r="A247" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="13.8">
+      <c r="A248" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="13.8">
+      <c r="A249" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="13.8">
+      <c r="A250" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="13.8">
+      <c r="A251" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="13.8">
+      <c r="A252" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="13.8">
+      <c r="A253" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="13.8">
+      <c r="A254" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="13.8">
+      <c r="A255" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13.8">
+      <c r="A256" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>971</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="13.8">
+      <c r="A257" s="36" t="s">
+        <v>976</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13.8">
+      <c r="A258" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="13.8">
+      <c r="A259" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13.8">
+      <c r="A260" s="36" t="s">
+        <v>987</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="13.8">
+      <c r="A261" s="36" t="s">
+        <v>991</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="13.8">
+      <c r="A262" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="13.8">
+      <c r="A263" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="13.8">
+      <c r="A264" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="13.8">
+      <c r="A265" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="13.8">
+      <c r="A266" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C266" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="13.8">
+      <c r="A267" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="13.8">
+      <c r="A268" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="13.8">
+      <c r="A269" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="13.8">
+      <c r="A270" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="13.8">
+      <c r="A271" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="13.8">
+      <c r="A272" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13.8">
+      <c r="A273" s="36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="158.4">
+      <c r="A274" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B274" s="30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="13.8">
+      <c r="A275" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13.8">
+      <c r="A276" s="29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="13.8">
+      <c r="A277" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="13.8">
+      <c r="A278" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B278" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="13.8">
+      <c r="A279" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13.8">
+      <c r="A280" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="13.8">
+      <c r="A281" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="13.8">
+      <c r="A282" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="13.8">
+      <c r="A283" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="13.8">
+      <c r="A284" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="13.8">
+      <c r="A285" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="13.8">
+      <c r="A286" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="13.8">
+      <c r="A287" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="13.8">
+      <c r="A288" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="13.8">
+      <c r="A289" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{EE160D9A-37A2-4933-8E76-88E346485FB0}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{E0A1DEA4-4D08-46D1-9461-92E872D93AC6}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{905DBC65-6147-4C6D-A219-FBFDF8E1F919}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{956BE504-D62D-484F-B13C-DDC2BD2792F4}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{4FA962B9-AA6D-40ED-9F9E-3A734CA5303F}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{A3037E59-A60F-4263-8734-9D6B3639A415}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{FEC9BE41-1CB0-456A-B884-552A2392F597}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{C6BFB3DB-6303-4C5B-A414-B4B0477BC4EB}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{787334D0-34C1-48D7-8B5A-1D4A5AF5992C}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{4E345C5A-3CF8-43BD-B119-B883430C2F4C}"/>
+    <hyperlink ref="A9" r:id="rId11" xr:uid="{C19F4236-5D83-4663-8192-8E33D4879ECF}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{50D69FBC-15D6-4C56-8673-F95B4FA94291}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{2C4AF700-D562-4576-BAD5-D60B01850A8A}"/>
+    <hyperlink ref="A11" r:id="rId14" xr:uid="{4A0182A2-94CC-4213-A557-30EF3F642850}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{1C9B1101-39AA-437A-9997-0478B9DE4228}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{A9495E6A-8E07-4EA0-98C8-1DFEAC997359}"/>
+    <hyperlink ref="B16" r:id="rId17" display="https://www.healthgrades.com/physician/dr-amy-chen-x4768" xr:uid="{72DB2C01-8B7A-41D0-A9F2-09D083E53446}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{F5B1EB45-677E-4011-B7CD-EC7B338D751B}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{CC0D361A-6998-4329-8AA0-C7DDDECB134A}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{D9EDFA1E-203F-4057-B529-DD893C5E236E}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{4B0D689E-8610-48E2-9EF3-745D2C6E7955}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{1FE00AD4-7B91-41F9-85C8-60369DCC3305}"/>
+    <hyperlink ref="B22" r:id="rId23" xr:uid="{E1E269FB-F83A-4895-8F19-85F0E24A3C76}"/>
+    <hyperlink ref="A23" r:id="rId24" xr:uid="{10B20308-3792-4BF1-B7AC-EB4317225136}"/>
+    <hyperlink ref="A24" r:id="rId25" xr:uid="{3E8FB6E2-0FB9-4CF6-A5F4-2A505561089D}"/>
+    <hyperlink ref="B24" r:id="rId26" xr:uid="{6467A46B-9DAD-409C-ABE2-ABC78BA3A5CA}"/>
+    <hyperlink ref="A25" r:id="rId27" xr:uid="{4B8C008B-1780-4B42-8E63-879D95917D4E}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{F0370970-0079-44A4-803B-E032C10ED2F6}"/>
+    <hyperlink ref="A26" r:id="rId29" xr:uid="{369871F2-ED5C-4B92-A3E2-98410063C6F5}"/>
+    <hyperlink ref="A27" r:id="rId30" xr:uid="{FE81B9CA-9F3C-4371-BAD2-E1115801F957}"/>
+    <hyperlink ref="B27" r:id="rId31" xr:uid="{68E5B309-EEEC-43CF-B890-B519681E95FE}"/>
+    <hyperlink ref="C27" r:id="rId32" xr:uid="{2C2DBA41-56D9-45C5-B345-515D0C48184D}"/>
+    <hyperlink ref="A28" r:id="rId33" xr:uid="{EDA58CBC-B779-4220-8B11-4D4FB3F48ED6}"/>
+    <hyperlink ref="B28" r:id="rId34" xr:uid="{AEFDEA78-CBFA-4448-B539-61C1E8FF4979}"/>
+    <hyperlink ref="B31" r:id="rId35" xr:uid="{7F44EA46-008B-4E4B-A881-877AB3F42449}"/>
+    <hyperlink ref="A33" r:id="rId36" xr:uid="{A9136A79-7EAD-442C-8A8E-B1799F4BDDA3}"/>
+    <hyperlink ref="B33" r:id="rId37" xr:uid="{57FABAC3-4D92-4B7B-BA2E-D11C873B1FE7}"/>
+    <hyperlink ref="A34" r:id="rId38" xr:uid="{92A66E94-ABAB-4272-AF9F-DD400284A1C1}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{CCB674E9-F96B-489E-BCB0-135E76A500A9}"/>
+    <hyperlink ref="B39" r:id="rId40" xr:uid="{D0817D6E-3AC4-49BB-872B-180853FE9F91}"/>
+    <hyperlink ref="C39" r:id="rId41" xr:uid="{C8B08FF8-9B1F-4CDB-804D-DA8AD6E507DC}"/>
+    <hyperlink ref="A41" r:id="rId42" xr:uid="{51194BD8-6076-4754-BD0C-DD45E6148DEE}"/>
+    <hyperlink ref="B41" r:id="rId43" xr:uid="{58081544-3BB1-4245-A5B0-A0E040DBD418}"/>
+    <hyperlink ref="C41" r:id="rId44" xr:uid="{18746CC5-4640-47E7-ABB6-0E9D40F60761}"/>
+    <hyperlink ref="A42" r:id="rId45" xr:uid="{CCD0AEF2-AD1B-49B2-BC18-E80CF4E5EC95}"/>
+    <hyperlink ref="A100" r:id="rId46" xr:uid="{3FA91BD9-D4C7-43E5-A22F-DF335B29824B}"/>
+    <hyperlink ref="B274" r:id="rId47" xr:uid="{FB7CA805-4020-4ACD-8D56-AB29BD4F8D7F}"/>
+    <hyperlink ref="A61" r:id="rId48" xr:uid="{519C357B-E92D-40F3-9407-473DE1431313}"/>
+    <hyperlink ref="C87" r:id="rId49" xr:uid="{A6A0FF55-6D25-4B99-B4D0-906231B7E00D}"/>
+    <hyperlink ref="C266" r:id="rId50" xr:uid="{38DA9241-7268-412E-9529-F210A255DBE9}"/>
+    <hyperlink ref="A275" r:id="rId51" xr:uid="{279CE7ED-EAB3-4AD4-B7EE-4CFBBACBA23D}"/>
+    <hyperlink ref="A273" r:id="rId52" xr:uid="{2817575E-41D9-4E6C-B20E-B182D1617F44}"/>
+    <hyperlink ref="A249" r:id="rId53" xr:uid="{2D38FF34-C4DB-4D0E-AF22-E3CB69ABF2A2}"/>
+    <hyperlink ref="A261" r:id="rId54" xr:uid="{8C3910B1-3C09-46FC-A7E4-405710B63879}"/>
+    <hyperlink ref="A260" r:id="rId55" xr:uid="{51FED39B-346C-458F-9474-322AA9FC4A3F}"/>
+    <hyperlink ref="A259" r:id="rId56" xr:uid="{2D073FBE-0196-4723-ACAE-FB7F930DD8CB}"/>
+    <hyperlink ref="A257" r:id="rId57" xr:uid="{F6FD9E34-5585-4CE4-8E08-7B14EC2F2510}"/>
+    <hyperlink ref="A258" r:id="rId58" xr:uid="{D7240623-B27A-4A92-B924-CDE2CCE0716F}"/>
+    <hyperlink ref="B47" r:id="rId59" xr:uid="{1EB5CC58-FE3D-4122-AED8-1CD01CA354F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
+</worksheet>
 </file>
--- a/web_scrape/Scraping_Sheet_Short.xlsx
+++ b/web_scrape/Scraping_Sheet_Short.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalip\OneDrive\Documents\physician_web_scraper\web_scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F10316-F5D1-47EA-8237-7A0AAC469BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5A8159-780B-4AE0-B660-762BB6F236F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3336" windowHeight="4104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - American Head and Nec" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1293">
   <si>
     <t>ID</t>
   </si>
@@ -4582,10 +4581,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0A0101"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4882,7 +4882,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4949,9 +4949,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5006,8 +5003,14 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6172,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -6182,7 +6185,7 @@
     <col min="2" max="3" width="16.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="7" width="16.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="38" customWidth="1"/>
     <col min="9" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -6237,7 +6240,7 @@
       <c r="H2" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="22.05" customHeight="1">
       <c r="A3" s="10">
@@ -6265,7 +6268,7 @@
       <c r="H3" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="O3" s="35"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="22.05" customHeight="1">
       <c r="A4" s="10">
@@ -6407,7 +6410,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6635,7 +6638,7 @@
       <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -7172,7 +7175,7 @@
       <c r="D37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="35" t="s">
         <v>131</v>
       </c>
       <c r="F37" s="13" t="s">
@@ -7226,10 +7229,10 @@
       <c r="D39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="35" t="s">
         <v>137</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -7361,7 +7364,7 @@
       <c r="D44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="35" t="s">
         <v>158</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -7388,10 +7391,10 @@
       <c r="D45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="35" t="s">
         <v>162</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -7415,10 +7418,10 @@
       <c r="D46" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="35" t="s">
         <v>167</v>
       </c>
       <c r="G46" s="13" t="s">
@@ -7442,10 +7445,10 @@
       <c r="D47" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="35" t="s">
         <v>172</v>
       </c>
       <c r="G47" s="13" t="s">
@@ -7469,10 +7472,10 @@
       <c r="D48" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="35" t="s">
         <v>177</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -7550,10 +7553,10 @@
       <c r="D51" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="35" t="s">
         <v>186</v>
       </c>
       <c r="G51" s="13" t="s">
@@ -7577,10 +7580,10 @@
       <c r="D52" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="35" t="s">
         <v>191</v>
       </c>
       <c r="G52" s="13" t="s">
@@ -7604,10 +7607,10 @@
       <c r="D53" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="35" t="s">
         <v>196</v>
       </c>
       <c r="G53" s="13" t="s">
@@ -7631,7 +7634,7 @@
       <c r="D54" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="35" t="s">
         <v>200</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -7658,10 +7661,10 @@
       <c r="D55" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="35" t="s">
         <v>204</v>
       </c>
       <c r="G55" s="13" t="s">
@@ -7685,7 +7688,7 @@
       <c r="D56" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="35" t="s">
         <v>207</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -7712,10 +7715,10 @@
       <c r="D57" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="35" t="s">
         <v>211</v>
       </c>
       <c r="G57" s="13" t="s">
@@ -7739,7 +7742,7 @@
       <c r="D58" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="35" t="s">
         <v>215</v>
       </c>
       <c r="F58" s="13" t="s">
@@ -7766,7 +7769,7 @@
       <c r="D59" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="35" t="s">
         <v>219</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -7793,7 +7796,7 @@
       <c r="D60" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="35" t="s">
         <v>223</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -7820,10 +7823,10 @@
       <c r="D61" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="35" t="s">
         <v>228</v>
       </c>
       <c r="G61" s="13" t="s">
@@ -7847,7 +7850,7 @@
       <c r="D62" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="35" t="s">
         <v>231</v>
       </c>
       <c r="F62" s="13" t="s">
@@ -7874,10 +7877,10 @@
       <c r="D63" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="35" t="s">
         <v>237</v>
       </c>
       <c r="G63" s="13" t="s">
@@ -7901,10 +7904,10 @@
       <c r="D64" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="35" t="s">
         <v>242</v>
       </c>
       <c r="G64" s="13" t="s">
@@ -7928,10 +7931,10 @@
       <c r="D65" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="35" t="s">
         <v>247</v>
       </c>
       <c r="G65" s="13" t="s">
@@ -7955,7 +7958,7 @@
       <c r="D66" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="35" t="s">
         <v>251</v>
       </c>
       <c r="F66" s="13" t="s">
@@ -8009,7 +8012,7 @@
       <c r="D68" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="35" t="s">
         <v>258</v>
       </c>
       <c r="F68" s="13" t="s">
@@ -8063,10 +8066,10 @@
       <c r="D70" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="35" t="s">
         <v>265</v>
       </c>
       <c r="G70" s="13" t="s">
@@ -8117,10 +8120,10 @@
       <c r="D72" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="35" t="s">
         <v>272</v>
       </c>
       <c r="G72" s="13" t="s">
@@ -8144,10 +8147,10 @@
       <c r="D73" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="35" t="s">
         <v>276</v>
       </c>
       <c r="G73" s="13" t="s">
@@ -8171,10 +8174,10 @@
       <c r="D74" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="35" t="s">
         <v>280</v>
       </c>
       <c r="G74" s="13" t="s">
@@ -8198,7 +8201,7 @@
       <c r="D75" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="35" t="s">
         <v>283</v>
       </c>
       <c r="F75" s="13" t="s">
@@ -8306,13 +8309,13 @@
       <c r="D79" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="35" t="s">
         <v>296</v>
       </c>
       <c r="H79" s="13" t="s">
@@ -8333,10 +8336,10 @@
       <c r="D80" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="35" t="s">
         <v>301</v>
       </c>
       <c r="G80" s="13" t="s">
@@ -8387,7 +8390,7 @@
       <c r="D82" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="35" t="s">
         <v>306</v>
       </c>
       <c r="F82" s="13" t="s">
@@ -8441,10 +8444,10 @@
       <c r="D84" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="35" t="s">
         <v>314</v>
       </c>
       <c r="G84" s="13" t="s">
@@ -8468,7 +8471,7 @@
       <c r="D85" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="35" t="s">
         <v>317</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -8495,7 +8498,7 @@
       <c r="D86" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="35" t="s">
         <v>320</v>
       </c>
       <c r="F86" s="13" t="s">
@@ -8522,10 +8525,10 @@
       <c r="D87" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="35" t="s">
         <v>324</v>
       </c>
       <c r="G87" s="13" t="s">
@@ -8549,13 +8552,13 @@
       <c r="D88" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="G88" s="36" t="s">
+      <c r="G88" s="35" t="s">
         <v>329</v>
       </c>
       <c r="H88" s="13" t="s">
@@ -8603,7 +8606,7 @@
       <c r="D90" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="35" t="s">
         <v>335</v>
       </c>
       <c r="F90" s="13" t="s">
@@ -8657,13 +8660,13 @@
       <c r="D92" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="35" t="s">
         <v>343</v>
       </c>
       <c r="H92" s="13" t="s">
@@ -8684,10 +8687,10 @@
       <c r="D93" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="35" t="s">
         <v>348</v>
       </c>
       <c r="G93" s="13" t="s">
@@ -8711,10 +8714,10 @@
       <c r="D94" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="35" t="s">
         <v>353</v>
       </c>
       <c r="G94" s="13" t="s">
@@ -8738,10 +8741,10 @@
       <c r="D95" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="35" t="s">
         <v>357</v>
       </c>
       <c r="G95" s="13" t="s">
@@ -8765,13 +8768,13 @@
       <c r="D96" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G96" s="35" t="s">
         <v>363</v>
       </c>
       <c r="H96" s="13" t="s">
@@ -8792,10 +8795,10 @@
       <c r="D97" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="35" t="s">
         <v>368</v>
       </c>
       <c r="G97" s="13" t="s">
@@ -8873,7 +8876,7 @@
       <c r="D100" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="41" t="s">
         <v>376</v>
       </c>
       <c r="F100" s="13" t="s">
@@ -8900,7 +8903,7 @@
       <c r="D101" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="22" t="s">
         <v>379</v>
       </c>
       <c r="F101" s="21" t="s">
@@ -8954,10 +8957,10 @@
       <c r="D103" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="35" t="s">
         <v>386</v>
       </c>
       <c r="G103" s="13" t="s">
@@ -8981,10 +8984,10 @@
       <c r="D104" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="E104" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="35" t="s">
         <v>391</v>
       </c>
       <c r="G104" s="13" t="s">
@@ -9008,13 +9011,13 @@
       <c r="D105" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E105" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="35" t="s">
         <v>397</v>
       </c>
       <c r="H105" s="13" t="s">
@@ -9035,13 +9038,13 @@
       <c r="D106" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="35" t="s">
         <v>401</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="35" t="s">
         <v>402</v>
       </c>
       <c r="H106" s="13" t="s">
@@ -9089,7 +9092,7 @@
       <c r="D108" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="E108" s="35" t="s">
         <v>407</v>
       </c>
       <c r="F108" s="13" t="s">
@@ -9119,7 +9122,7 @@
       <c r="E109" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F109" s="35" t="s">
         <v>412</v>
       </c>
       <c r="G109" s="13" t="s">
@@ -9143,10 +9146,10 @@
       <c r="D110" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="35" t="s">
         <v>417</v>
       </c>
       <c r="G110" s="13" t="s">
@@ -9170,7 +9173,7 @@
       <c r="D111" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="35" t="s">
         <v>420</v>
       </c>
       <c r="F111" s="13" t="s">
@@ -9197,10 +9200,10 @@
       <c r="D112" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="35" t="s">
         <v>425</v>
       </c>
       <c r="G112" s="13" t="s">
@@ -9224,7 +9227,7 @@
       <c r="D113" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="35" t="s">
         <v>430</v>
       </c>
       <c r="F113" s="13" t="s">
@@ -9251,7 +9254,7 @@
       <c r="D114" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="35" t="s">
         <v>434</v>
       </c>
       <c r="F114" s="13" t="s">
@@ -9278,7 +9281,7 @@
       <c r="D115" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="35" t="s">
         <v>437</v>
       </c>
       <c r="F115" s="13" t="s">
@@ -9359,7 +9362,7 @@
       <c r="D118" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="E118" s="35" t="s">
         <v>445</v>
       </c>
       <c r="F118" s="13" t="s">
@@ -9386,7 +9389,7 @@
       <c r="D119" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="E119" s="35" t="s">
         <v>449</v>
       </c>
       <c r="F119" s="13" t="s">
@@ -9413,7 +9416,7 @@
       <c r="D120" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="35" t="s">
         <v>453</v>
       </c>
       <c r="F120" s="13" t="s">
@@ -9494,10 +9497,10 @@
       <c r="D123" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F123" s="35" t="s">
         <v>463</v>
       </c>
       <c r="G123" s="13" t="s">
@@ -9521,10 +9524,10 @@
       <c r="D124" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="E124" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="F124" s="13" t="s">
+      <c r="F124" s="35" t="s">
         <v>467</v>
       </c>
       <c r="G124" s="13" t="s">
@@ -9548,10 +9551,10 @@
       <c r="D125" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="E125" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="F125" s="13" t="s">
+      <c r="F125" s="35" t="s">
         <v>471</v>
       </c>
       <c r="G125" s="13" t="s">
@@ -9575,7 +9578,7 @@
       <c r="D126" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E126" s="35" t="s">
         <v>475</v>
       </c>
       <c r="F126" s="13" t="s">
@@ -9602,7 +9605,7 @@
       <c r="D127" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="E127" s="35" t="s">
         <v>479</v>
       </c>
       <c r="F127" s="13" t="s">
@@ -9629,7 +9632,7 @@
       <c r="D128" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="E128" s="35" t="s">
         <v>483</v>
       </c>
       <c r="F128" s="13" t="s">
@@ -9656,10 +9659,10 @@
       <c r="D129" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="E129" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="35" t="s">
         <v>488</v>
       </c>
       <c r="G129" s="13" t="s">
@@ -9683,7 +9686,7 @@
       <c r="D130" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="E130" s="35" t="s">
         <v>492</v>
       </c>
       <c r="F130" s="13" t="s">
@@ -9737,7 +9740,7 @@
       <c r="D132" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="E132" s="35" t="s">
         <v>497</v>
       </c>
       <c r="F132" s="13" t="s">
@@ -9764,10 +9767,10 @@
       <c r="D133" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="E133" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="35" t="s">
         <v>501</v>
       </c>
       <c r="G133" s="13" t="s">
@@ -9791,10 +9794,10 @@
       <c r="D134" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="35" t="s">
         <v>506</v>
       </c>
       <c r="G134" s="13" t="s">
@@ -9845,7 +9848,7 @@
       <c r="D136" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="E136" s="35" t="s">
         <v>512</v>
       </c>
       <c r="F136" s="13" t="s">
@@ -9875,7 +9878,7 @@
       <c r="E137" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="F137" s="35" t="s">
         <v>514</v>
       </c>
       <c r="G137" s="13" t="s">
@@ -9899,10 +9902,10 @@
       <c r="D138" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="E138" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="35" t="s">
         <v>518</v>
       </c>
       <c r="G138" s="13" t="s">
@@ -9953,7 +9956,7 @@
       <c r="D140" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="E140" s="35" t="s">
         <v>522</v>
       </c>
       <c r="F140" s="13" t="s">
@@ -10007,10 +10010,10 @@
       <c r="D142" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="E142" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F142" s="35" t="s">
         <v>531</v>
       </c>
       <c r="G142" s="13" t="s">
@@ -10061,10 +10064,10 @@
       <c r="D144" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="E144" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="35" t="s">
         <v>538</v>
       </c>
       <c r="G144" s="13" t="s">
@@ -10091,7 +10094,7 @@
       <c r="E145" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="13" t="s">
+      <c r="F145" s="35" t="s">
         <v>542</v>
       </c>
       <c r="G145" s="13" t="s">
@@ -10115,10 +10118,10 @@
       <c r="D146" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="E146" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="F146" s="35" t="s">
         <v>547</v>
       </c>
       <c r="G146" s="13" t="s">
@@ -10142,7 +10145,7 @@
       <c r="D147" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="E147" s="35" t="s">
         <v>552</v>
       </c>
       <c r="F147" s="13" t="s">
@@ -10166,13 +10169,13 @@
       <c r="C148" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="E148" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="F148" s="13" t="s">
+      <c r="F148" s="35" t="s">
         <v>556</v>
       </c>
       <c r="G148" s="13" t="s">
@@ -10196,10 +10199,10 @@
       <c r="D149" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="E149" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F149" s="13" t="s">
+      <c r="F149" s="35" t="s">
         <v>561</v>
       </c>
       <c r="G149" s="13" t="s">
@@ -10250,10 +10253,10 @@
       <c r="D151" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="E151" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="F151" s="13" t="s">
+      <c r="F151" s="35" t="s">
         <v>567</v>
       </c>
       <c r="G151" s="13" t="s">
@@ -10277,10 +10280,10 @@
       <c r="D152" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E152" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="F152" s="35" t="s">
         <v>573</v>
       </c>
       <c r="G152" s="13" t="s">
@@ -10304,10 +10307,10 @@
       <c r="D153" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="E153" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="F153" s="13" t="s">
+      <c r="F153" s="35" t="s">
         <v>578</v>
       </c>
       <c r="G153" s="13" t="s">
@@ -10331,7 +10334,7 @@
       <c r="D154" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="35" t="s">
         <v>583</v>
       </c>
       <c r="F154" s="13" t="s">
@@ -10358,7 +10361,7 @@
       <c r="D155" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="35" t="s">
         <v>586</v>
       </c>
       <c r="F155" s="13" t="s">
@@ -10385,10 +10388,10 @@
       <c r="D156" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="E156" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="F156" s="13" t="s">
+      <c r="F156" s="35" t="s">
         <v>592</v>
       </c>
       <c r="G156" s="13" t="s">
@@ -10403,7 +10406,7 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="23" t="s">
         <v>593</v>
       </c>
       <c r="C157" s="20" t="s">
@@ -10430,7 +10433,7 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="23" t="s">
         <v>595</v>
       </c>
       <c r="C158" s="20" t="s">
@@ -10439,7 +10442,7 @@
       <c r="D158" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="25" t="s">
+      <c r="E158" s="42" t="s">
         <v>597</v>
       </c>
       <c r="F158" s="13" t="s">
@@ -10466,10 +10469,10 @@
       <c r="D159" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="E159" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="F159" s="25" t="s">
+      <c r="F159" s="42" t="s">
         <v>602</v>
       </c>
       <c r="G159" s="13" t="s">
@@ -10490,13 +10493,13 @@
       <c r="C160" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="E160" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="F160" s="25" t="s">
+      <c r="F160" s="42" t="s">
         <v>607</v>
       </c>
       <c r="G160" s="13" t="s">
@@ -10520,10 +10523,10 @@
       <c r="D161" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="E161" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="F161" s="25" t="s">
+      <c r="F161" s="42" t="s">
         <v>612</v>
       </c>
       <c r="G161" s="13" t="s">
@@ -10547,10 +10550,10 @@
       <c r="D162" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="E162" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="F162" s="13" t="s">
+      <c r="F162" s="35" t="s">
         <v>617</v>
       </c>
       <c r="G162" s="13" t="s">
@@ -10574,10 +10577,10 @@
       <c r="D163" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="F163" s="25" t="s">
+      <c r="F163" s="42" t="s">
         <v>622</v>
       </c>
       <c r="G163" s="13" t="s">
@@ -10592,13 +10595,13 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="23" t="s">
         <v>623</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="25" t="s">
         <v>625</v>
       </c>
       <c r="E164" s="13" t="s">
@@ -10628,7 +10631,7 @@
       <c r="D165" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="E165" s="35" t="s">
         <v>629</v>
       </c>
       <c r="F165" s="13" t="s">
@@ -10646,7 +10649,7 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="23" t="s">
         <v>630</v>
       </c>
       <c r="C166" s="20" t="s">
@@ -10682,7 +10685,7 @@
       <c r="D167" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="E167" s="35" t="s">
         <v>635</v>
       </c>
       <c r="F167" s="13" t="s">
@@ -10709,10 +10712,10 @@
       <c r="D168" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="E168" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="F168" s="13" t="s">
+      <c r="F168" s="35" t="s">
         <v>640</v>
       </c>
       <c r="G168" s="13" t="s">
@@ -10736,10 +10739,10 @@
       <c r="D169" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="F169" s="13" t="s">
+      <c r="F169" s="35" t="s">
         <v>645</v>
       </c>
       <c r="G169" s="13" t="s">
@@ -10763,10 +10766,10 @@
       <c r="D170" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="E170" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="F170" s="25" t="s">
+      <c r="F170" s="42" t="s">
         <v>649</v>
       </c>
       <c r="G170" s="13" t="s">
@@ -10781,7 +10784,7 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="23" t="s">
         <v>515</v>
       </c>
       <c r="C171" s="20" t="s">
@@ -10790,7 +10793,7 @@
       <c r="D171" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E171" s="42" t="s">
         <v>651</v>
       </c>
       <c r="F171" s="13" t="s">
@@ -10817,10 +10820,10 @@
       <c r="D172" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="F172" s="25" t="s">
+      <c r="F172" s="42" t="s">
         <v>655</v>
       </c>
       <c r="G172" s="13" t="s">
@@ -10844,10 +10847,10 @@
       <c r="D173" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="E173" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F173" s="25" t="s">
+      <c r="F173" s="42" t="s">
         <v>659</v>
       </c>
       <c r="G173" s="13" t="s">
@@ -10862,7 +10865,7 @@
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="23" t="s">
         <v>660</v>
       </c>
       <c r="C174" s="20" t="s">
@@ -10898,7 +10901,7 @@
       <c r="D175" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="E175" s="13" t="s">
+      <c r="E175" s="35" t="s">
         <v>665</v>
       </c>
       <c r="F175" s="13" t="s">
@@ -10922,7 +10925,7 @@
       <c r="C176" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="D176" s="26" t="s">
+      <c r="D176" s="25" t="s">
         <v>667</v>
       </c>
       <c r="E176" s="13" t="s">
@@ -10943,13 +10946,13 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="23" t="s">
         <v>668</v>
       </c>
       <c r="C177" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="25" t="s">
         <v>670</v>
       </c>
       <c r="E177" s="13" t="s">
@@ -10970,16 +10973,16 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="23" t="s">
         <v>671</v>
       </c>
       <c r="C178" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="E178" s="25" t="s">
+      <c r="E178" s="42" t="s">
         <v>674</v>
       </c>
       <c r="F178" s="13" t="s">
@@ -11006,13 +11009,13 @@
       <c r="D179" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="E179" s="35" t="s">
         <v>678</v>
       </c>
-      <c r="F179" s="25" t="s">
+      <c r="F179" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="G179" s="25" t="s">
+      <c r="G179" s="24" t="s">
         <v>680</v>
       </c>
       <c r="H179" s="13" t="s">
@@ -11033,7 +11036,7 @@
       <c r="D180" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E180" s="25" t="s">
+      <c r="E180" s="42" t="s">
         <v>683</v>
       </c>
       <c r="F180" s="13" t="s">
@@ -11063,7 +11066,7 @@
       <c r="E181" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F181" s="13" t="s">
+      <c r="F181" s="35" t="s">
         <v>685</v>
       </c>
       <c r="G181" s="13" t="s">
@@ -11078,7 +11081,7 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="23" t="s">
         <v>681</v>
       </c>
       <c r="C182" s="20" t="s">
@@ -11090,10 +11093,10 @@
       <c r="E182" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F182" s="25" t="s">
+      <c r="F182" s="42" t="s">
         <v>687</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="24" t="s">
         <v>688</v>
       </c>
       <c r="H182" s="13" t="s">
@@ -11114,10 +11117,10 @@
       <c r="D183" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="E183" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="F183" s="13" t="s">
+      <c r="F183" s="35" t="s">
         <v>692</v>
       </c>
       <c r="G183" s="13" t="s">
@@ -11138,10 +11141,10 @@
       <c r="C184" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="25" t="s">
         <v>694</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="E184" s="35" t="s">
         <v>695</v>
       </c>
       <c r="F184" s="13" t="s">
@@ -11168,10 +11171,10 @@
       <c r="D185" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="E185" s="35" t="s">
         <v>698</v>
       </c>
-      <c r="F185" s="25" t="s">
+      <c r="F185" s="42" t="s">
         <v>699</v>
       </c>
       <c r="G185" s="13" t="s">
@@ -11195,10 +11198,10 @@
       <c r="D186" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="E186" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="F186" s="13" t="s">
+      <c r="F186" s="35" t="s">
         <v>702</v>
       </c>
       <c r="G186" s="13" t="s">
@@ -11222,10 +11225,10 @@
       <c r="D187" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="E187" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="F187" s="25" t="s">
+      <c r="F187" s="42" t="s">
         <v>706</v>
       </c>
       <c r="G187" s="13" t="s">
@@ -11249,10 +11252,10 @@
       <c r="D188" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="E188" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="F188" s="25" t="s">
+      <c r="F188" s="42" t="s">
         <v>710</v>
       </c>
       <c r="G188" s="13" t="s">
@@ -11267,7 +11270,7 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="23" t="s">
         <v>711</v>
       </c>
       <c r="C189" s="20" t="s">
@@ -11294,16 +11297,16 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="23" t="s">
         <v>713</v>
       </c>
       <c r="C190" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="E190" s="25" t="s">
+      <c r="E190" s="42" t="s">
         <v>715</v>
       </c>
       <c r="F190" s="13" t="s">
@@ -11330,10 +11333,10 @@
       <c r="D191" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="E191" s="35" t="s">
         <v>718</v>
       </c>
-      <c r="F191" s="25" t="s">
+      <c r="F191" s="42" t="s">
         <v>719</v>
       </c>
       <c r="G191" s="13" t="s">
@@ -11357,7 +11360,7 @@
       <c r="D192" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="E192" s="13" t="s">
+      <c r="E192" s="35" t="s">
         <v>723</v>
       </c>
       <c r="F192" s="13" t="s">
@@ -11384,10 +11387,10 @@
       <c r="D193" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="E193" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="F193" s="13" t="s">
+      <c r="F193" s="35" t="s">
         <v>728</v>
       </c>
       <c r="G193" s="13" t="s">
@@ -11411,10 +11414,10 @@
       <c r="D194" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="E194" s="35" t="s">
         <v>731</v>
       </c>
-      <c r="F194" s="25" t="s">
+      <c r="F194" s="42" t="s">
         <v>732</v>
       </c>
       <c r="G194" s="13" t="s">
@@ -11438,10 +11441,10 @@
       <c r="D195" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="E195" s="13" t="s">
+      <c r="E195" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="F195" s="25" t="s">
+      <c r="F195" s="42" t="s">
         <v>737</v>
       </c>
       <c r="G195" s="13" t="s">
@@ -11465,7 +11468,7 @@
       <c r="D196" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="E196" s="25" t="s">
+      <c r="E196" s="42" t="s">
         <v>735</v>
       </c>
       <c r="F196" s="13" t="s">
@@ -11492,10 +11495,10 @@
       <c r="D197" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="E197" s="35" t="s">
         <v>743</v>
       </c>
-      <c r="F197" s="25" t="s">
+      <c r="F197" s="42" t="s">
         <v>744</v>
       </c>
       <c r="G197" s="13" t="s">
@@ -11519,10 +11522,10 @@
       <c r="D198" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="E198" s="13" t="s">
+      <c r="E198" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="F198" s="13" t="s">
+      <c r="F198" s="35" t="s">
         <v>749</v>
       </c>
       <c r="G198" s="13" t="s">
@@ -11546,10 +11549,10 @@
       <c r="D199" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="E199" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="F199" s="13" t="s">
+      <c r="F199" s="35" t="s">
         <v>755</v>
       </c>
       <c r="G199" s="13" t="s">
@@ -11573,7 +11576,7 @@
       <c r="D200" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="E200" s="13" t="s">
+      <c r="E200" s="35" t="s">
         <v>759</v>
       </c>
       <c r="F200" s="13" t="s">
@@ -11600,10 +11603,10 @@
       <c r="D201" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="E201" s="13" t="s">
+      <c r="E201" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="F201" s="13" t="s">
+      <c r="F201" s="35" t="s">
         <v>765</v>
       </c>
       <c r="G201" s="13" t="s">
@@ -11630,7 +11633,7 @@
       <c r="E202" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F202" s="13" t="s">
+      <c r="F202" s="35" t="s">
         <v>769</v>
       </c>
       <c r="G202" s="13" t="s">
@@ -11651,13 +11654,13 @@
       <c r="C203" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="D203" s="16" t="s">
+      <c r="D203" s="37" t="s">
         <v>771</v>
       </c>
-      <c r="E203" s="13" t="s">
+      <c r="E203" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="F203" s="13" t="s">
+      <c r="F203" s="35" t="s">
         <v>773</v>
       </c>
       <c r="G203" s="13" t="s">
@@ -11672,7 +11675,7 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="23" t="s">
         <v>774</v>
       </c>
       <c r="C204" s="20" t="s">
@@ -11699,19 +11702,19 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="23" t="s">
         <v>776</v>
       </c>
       <c r="C205" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="25" t="s">
         <v>778</v>
       </c>
       <c r="E205" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F205" s="25" t="s">
+      <c r="F205" s="42" t="s">
         <v>779</v>
       </c>
       <c r="G205" s="13" t="s">
@@ -11738,7 +11741,7 @@
       <c r="E206" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="F206" s="25" t="s">
+      <c r="F206" s="24" t="s">
         <v>784</v>
       </c>
       <c r="G206" s="13" t="s">
@@ -11765,7 +11768,7 @@
       <c r="E207" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="F207" s="25" t="s">
+      <c r="F207" s="24" t="s">
         <v>789</v>
       </c>
       <c r="G207" s="13" t="s">
@@ -11786,10 +11789,10 @@
       <c r="C208" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="D208" s="16" t="s">
+      <c r="D208" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="E208" s="25" t="s">
+      <c r="E208" s="24" t="s">
         <v>793</v>
       </c>
       <c r="F208" s="13" t="s">
@@ -11807,13 +11810,13 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209" s="24" t="s">
+      <c r="B209" s="23" t="s">
         <v>790</v>
       </c>
       <c r="C209" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D209" s="25" t="s">
         <v>795</v>
       </c>
       <c r="E209" s="13" t="s">
@@ -11897,10 +11900,10 @@
       <c r="D212" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="E212" s="25" t="s">
+      <c r="E212" s="24" t="s">
         <v>808</v>
       </c>
-      <c r="F212" s="25" t="s">
+      <c r="F212" s="24" t="s">
         <v>809</v>
       </c>
       <c r="G212" s="13" t="s">
@@ -11915,16 +11918,16 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="23" t="s">
         <v>810</v>
       </c>
       <c r="C213" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="D213" s="26" t="s">
+      <c r="D213" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="E213" s="25" t="s">
+      <c r="E213" s="24" t="s">
         <v>813</v>
       </c>
       <c r="F213" s="13" t="s">
@@ -11951,7 +11954,7 @@
       <c r="D214" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="E214" s="25" t="s">
+      <c r="E214" s="24" t="s">
         <v>817</v>
       </c>
       <c r="F214" s="13" t="s">
@@ -11969,7 +11972,7 @@
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="23" t="s">
         <v>818</v>
       </c>
       <c r="C215" s="20" t="s">
@@ -11996,7 +11999,7 @@
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="23" t="s">
         <v>820</v>
       </c>
       <c r="C216" s="20" t="s">
@@ -12023,13 +12026,13 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="23" t="s">
         <v>822</v>
       </c>
       <c r="C217" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="D217" s="26" t="s">
+      <c r="D217" s="25" t="s">
         <v>824</v>
       </c>
       <c r="E217" s="13" t="s">
@@ -12062,7 +12065,7 @@
       <c r="E218" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="F218" s="25" t="s">
+      <c r="F218" s="24" t="s">
         <v>828</v>
       </c>
       <c r="G218" s="13" t="s">
@@ -12143,7 +12146,7 @@
       <c r="E221" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="F221" s="25" t="s">
+      <c r="F221" s="24" t="s">
         <v>838</v>
       </c>
       <c r="G221" s="13" t="s">
@@ -12164,7 +12167,7 @@
       <c r="C222" s="20" t="s">
         <v>839</v>
       </c>
-      <c r="D222" s="26" t="s">
+      <c r="D222" s="25" t="s">
         <v>840</v>
       </c>
       <c r="E222" s="13" t="s">
@@ -12239,7 +12242,7 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="23" t="s">
         <v>850</v>
       </c>
       <c r="C225" s="20" t="s">
@@ -12266,7 +12269,7 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="B226" s="24" t="s">
+      <c r="B226" s="23" t="s">
         <v>852</v>
       </c>
       <c r="C226" s="20" t="s">
@@ -12416,7 +12419,7 @@
       <c r="F231" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="G231" s="27" t="s">
+      <c r="G231" s="26" t="s">
         <v>877</v>
       </c>
       <c r="H231" s="13" t="s">
@@ -12509,7 +12512,7 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="23" t="s">
         <v>890</v>
       </c>
       <c r="C235" s="20" t="s">
@@ -12563,16 +12566,16 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B237" s="24" t="s">
+      <c r="B237" s="23" t="s">
         <v>896</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="D237" s="26" t="s">
+      <c r="D237" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="E237" s="25" t="s">
+      <c r="E237" s="24" t="s">
         <v>899</v>
       </c>
       <c r="F237" s="13" t="s">
@@ -12680,7 +12683,7 @@
       <c r="D241" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="E241" s="25" t="s">
+      <c r="E241" s="24" t="s">
         <v>913</v>
       </c>
       <c r="F241" s="13" t="s">
@@ -12725,16 +12728,16 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="B243" s="24" t="s">
+      <c r="B243" s="23" t="s">
         <v>911</v>
       </c>
       <c r="C243" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="D243" s="26" t="s">
+      <c r="D243" s="25" t="s">
         <v>918</v>
       </c>
-      <c r="E243" s="25" t="s">
+      <c r="E243" s="24" t="s">
         <v>919</v>
       </c>
       <c r="F243" s="13" t="s">
@@ -12788,10 +12791,10 @@
       <c r="D245" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="E245" s="25" t="s">
+      <c r="E245" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="F245" s="24" t="s">
         <v>926</v>
       </c>
       <c r="G245" s="13" t="s">
@@ -12869,7 +12872,7 @@
       <c r="D248" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="E248" s="25" t="s">
+      <c r="E248" s="24" t="s">
         <v>938</v>
       </c>
       <c r="F248" s="13" t="s">
@@ -12896,7 +12899,7 @@
       <c r="D249" s="16" t="s">
         <v>942</v>
       </c>
-      <c r="E249" s="25" t="s">
+      <c r="E249" s="24" t="s">
         <v>943</v>
       </c>
       <c r="F249" s="13" t="s">
@@ -12923,7 +12926,7 @@
       <c r="D250" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="E250" s="36" t="s">
+      <c r="E250" s="35" t="s">
         <v>946</v>
       </c>
       <c r="F250" s="13" t="s">
@@ -12941,7 +12944,7 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="23" t="s">
         <v>948</v>
       </c>
       <c r="C251" s="20" t="s">
@@ -12974,7 +12977,7 @@
       <c r="C252" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="D252" s="26" t="s">
+      <c r="D252" s="25" t="s">
         <v>952</v>
       </c>
       <c r="E252" s="13" t="s">
@@ -13034,7 +13037,7 @@
       <c r="E254" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="F254" s="25" t="s">
+      <c r="F254" s="24" t="s">
         <v>961</v>
       </c>
       <c r="G254" s="13" t="s">
@@ -13049,7 +13052,7 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B255" s="24" t="s">
+      <c r="B255" s="23" t="s">
         <v>962</v>
       </c>
       <c r="C255" s="20" t="s">
@@ -13115,7 +13118,7 @@
       <c r="E257" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="F257" s="25" t="s">
+      <c r="F257" s="24" t="s">
         <v>971</v>
       </c>
       <c r="G257" s="13" t="s">
@@ -13139,7 +13142,7 @@
       <c r="D258" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="E258" s="36" t="s">
+      <c r="E258" s="35" t="s">
         <v>976</v>
       </c>
       <c r="F258" s="13" t="s">
@@ -13166,7 +13169,7 @@
       <c r="D259" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="E259" s="36" t="s">
+      <c r="E259" s="35" t="s">
         <v>979</v>
       </c>
       <c r="F259" s="13" t="s">
@@ -13193,7 +13196,7 @@
       <c r="D260" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="E260" s="36" t="s">
+      <c r="E260" s="35" t="s">
         <v>983</v>
       </c>
       <c r="F260" s="13" t="s">
@@ -13220,13 +13223,13 @@
       <c r="D261" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="E261" s="36" t="s">
+      <c r="E261" s="35" t="s">
         <v>987</v>
       </c>
-      <c r="F261" s="25" t="s">
+      <c r="F261" s="24" t="s">
         <v>988</v>
       </c>
-      <c r="G261" s="25" t="s">
+      <c r="G261" s="24" t="s">
         <v>989</v>
       </c>
       <c r="H261" s="13" t="s">
@@ -13247,7 +13250,7 @@
       <c r="D262" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E262" s="36" t="s">
+      <c r="E262" s="35" t="s">
         <v>991</v>
       </c>
       <c r="F262" s="13" t="s">
@@ -13304,7 +13307,7 @@
       <c r="E264" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="F264" s="25" t="s">
+      <c r="F264" s="24" t="s">
         <v>998</v>
       </c>
       <c r="G264" s="13" t="s">
@@ -13325,7 +13328,7 @@
       <c r="C265" s="20" t="s">
         <v>1000</v>
       </c>
-      <c r="D265" s="26" t="s">
+      <c r="D265" s="25" t="s">
         <v>1001</v>
       </c>
       <c r="E265" s="13" t="s">
@@ -13346,7 +13349,7 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B266" s="24" t="s">
+      <c r="B266" s="23" t="s">
         <v>1003</v>
       </c>
       <c r="C266" s="20" t="s">
@@ -13388,7 +13391,7 @@
       <c r="F267" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="G267" s="36" t="s">
+      <c r="G267" s="35" t="s">
         <v>1010</v>
       </c>
       <c r="H267" s="13" t="s">
@@ -13433,10 +13436,10 @@
       <c r="C269" s="20" t="s">
         <v>1016</v>
       </c>
-      <c r="D269" s="28" t="s">
+      <c r="D269" s="27" t="s">
         <v>1017</v>
       </c>
-      <c r="E269" s="29" t="s">
+      <c r="E269" s="28" t="s">
         <v>1013</v>
       </c>
       <c r="F269" s="13" t="s">
@@ -13487,7 +13490,7 @@
       <c r="C271" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="D271" s="28" t="s">
+      <c r="D271" s="27" t="s">
         <v>1024</v>
       </c>
       <c r="E271" s="13" t="s">
@@ -13535,19 +13538,19 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="23" t="s">
         <v>1029</v>
       </c>
       <c r="C273" s="20" t="s">
         <v>1030</v>
       </c>
-      <c r="D273" s="28" t="s">
+      <c r="D273" s="27" t="s">
         <v>1031</v>
       </c>
-      <c r="E273" s="29" t="s">
+      <c r="E273" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="F273" s="29" t="s">
+      <c r="F273" s="28" t="s">
         <v>1033</v>
       </c>
       <c r="G273" s="13" t="s">
@@ -13568,10 +13571,10 @@
       <c r="C274" s="20" t="s">
         <v>1035</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="D274" s="37" t="s">
         <v>1036</v>
       </c>
-      <c r="E274" s="36" t="s">
+      <c r="E274" s="35" t="s">
         <v>1037</v>
       </c>
       <c r="F274" s="13" t="s">
@@ -13595,13 +13598,13 @@
       <c r="C275" s="20" t="s">
         <v>1040</v>
       </c>
-      <c r="D275" s="28" t="s">
+      <c r="D275" s="27" t="s">
         <v>1041</v>
       </c>
       <c r="E275" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="F275" s="30" t="s">
+      <c r="F275" s="29" t="s">
         <v>1043</v>
       </c>
       <c r="G275" s="13" t="s">
@@ -13625,10 +13628,10 @@
       <c r="D276" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="E276" s="36" t="s">
+      <c r="E276" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="F276" s="31" t="s">
+      <c r="F276" s="30" t="s">
         <v>1048</v>
       </c>
       <c r="G276" s="13" t="s">
@@ -13649,10 +13652,10 @@
       <c r="C277" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="D277" s="28" t="s">
+      <c r="D277" s="27" t="s">
         <v>1050</v>
       </c>
-      <c r="E277" s="29" t="s">
+      <c r="E277" s="28" t="s">
         <v>1051</v>
       </c>
       <c r="F277" s="13" t="s">
@@ -13670,7 +13673,7 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B278" s="24" t="s">
+      <c r="B278" s="23" t="s">
         <v>1053</v>
       </c>
       <c r="C278" s="20" t="s">
@@ -13697,19 +13700,19 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B279" s="24" t="s">
+      <c r="B279" s="23" t="s">
         <v>1055</v>
       </c>
       <c r="C279" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="D279" s="27" t="s">
         <v>1057</v>
       </c>
-      <c r="E279" s="29" t="s">
+      <c r="E279" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="F279" s="29" t="s">
+      <c r="F279" s="28" t="s">
         <v>1059</v>
       </c>
       <c r="G279" s="13" t="s">
@@ -13724,7 +13727,7 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B280" s="23" t="s">
         <v>1060</v>
       </c>
       <c r="C280" s="20" t="s">
@@ -13757,7 +13760,7 @@
       <c r="C281" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="D281" s="28" t="s">
+      <c r="D281" s="27" t="s">
         <v>1064</v>
       </c>
       <c r="E281" s="13" t="s">
@@ -13787,7 +13790,7 @@
       <c r="D282" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E282" s="29" t="s">
+      <c r="E282" s="28" t="s">
         <v>1068</v>
       </c>
       <c r="F282" s="13" t="s">
@@ -13801,11 +13804,11 @@
       </c>
     </row>
     <row r="283" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A283" s="32">
+      <c r="A283" s="31">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="B283" s="24" t="s">
+      <c r="B283" s="23" t="s">
         <v>1069</v>
       </c>
       <c r="C283" s="20" t="s">
@@ -13940,10 +13943,10 @@
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="B288" s="33" t="s">
+      <c r="B288" s="32" t="s">
         <v>1084</v>
       </c>
-      <c r="C288" s="34" t="s">
+      <c r="C288" s="33" t="s">
         <v>1085</v>
       </c>
       <c r="D288" s="16" t="s">
@@ -13967,10 +13970,10 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B289" s="33" t="s">
+      <c r="B289" s="32" t="s">
         <v>1086</v>
       </c>
-      <c r="C289" s="34" t="s">
+      <c r="C289" s="33" t="s">
         <v>1087</v>
       </c>
       <c r="D289" s="16" t="s">
@@ -13994,10 +13997,10 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="B290" s="33" t="s">
+      <c r="B290" s="32" t="s">
         <v>1089</v>
       </c>
-      <c r="C290" s="34" t="s">
+      <c r="C290" s="33" t="s">
         <v>637</v>
       </c>
       <c r="D290" s="16" t="s">
@@ -14108,6 +14111,216 @@
     <hyperlink ref="E258" r:id="rId88" xr:uid="{6ACB97E9-307B-45F8-B41F-79B78A244BA9}"/>
     <hyperlink ref="E259" r:id="rId89" xr:uid="{94A7B252-CBC4-406E-8F21-1385A092DB5A}"/>
     <hyperlink ref="F48" r:id="rId90" xr:uid="{5C691963-902F-4604-9F12-4A113559D4F2}"/>
+    <hyperlink ref="G79" r:id="rId91" xr:uid="{FF051401-049A-468D-84C4-24BA8FF1004C}"/>
+    <hyperlink ref="G92" r:id="rId92" xr:uid="{58D5A61D-C8A3-4547-84DA-384DDC59E48D}"/>
+    <hyperlink ref="G96" r:id="rId93" xr:uid="{7CB58C05-58BD-4C11-9577-740B1218E410}"/>
+    <hyperlink ref="G105" r:id="rId94" xr:uid="{127C8626-71A7-47D1-9470-2DD9B4EC39E5}"/>
+    <hyperlink ref="G106" r:id="rId95" xr:uid="{D11F34DC-BF19-464E-8920-CE077FDB727A}"/>
+    <hyperlink ref="E37" r:id="rId96" xr:uid="{1321AF91-3319-4BFC-8E48-13F5DBDC452F}"/>
+    <hyperlink ref="E39" r:id="rId97" xr:uid="{0A7E9B42-0479-4142-8E3D-079B67417B1F}"/>
+    <hyperlink ref="F39" r:id="rId98" xr:uid="{9E8A50F6-C80A-4807-BCCC-4C77DA43E808}"/>
+    <hyperlink ref="E44" r:id="rId99" xr:uid="{57FA8D37-63BD-4C11-9A7C-BD49581AC8D9}"/>
+    <hyperlink ref="E45" r:id="rId100" xr:uid="{24916216-D7C4-4EB1-81A5-6D8376403F2B}"/>
+    <hyperlink ref="F45" r:id="rId101" xr:uid="{0916CCB0-6A98-4ACF-928C-62CE42A258EE}"/>
+    <hyperlink ref="E46" r:id="rId102" xr:uid="{BE507406-ED5C-4822-9ED4-88CFDB210C04}"/>
+    <hyperlink ref="F46" r:id="rId103" xr:uid="{AA529002-1789-476E-8852-074371E89EA9}"/>
+    <hyperlink ref="E47" r:id="rId104" xr:uid="{AAF80884-AE68-4154-BDA5-1E5864B413B7}"/>
+    <hyperlink ref="F47" r:id="rId105" xr:uid="{F52DC16D-6D7B-4FE7-8DBD-7C3A1216BBEA}"/>
+    <hyperlink ref="E48" r:id="rId106" xr:uid="{A6343F63-C72B-4C35-B995-571A3ADC1534}"/>
+    <hyperlink ref="E51" r:id="rId107" xr:uid="{1907A6E4-EE36-4A2A-AE18-F32CE7AEF796}"/>
+    <hyperlink ref="F51" r:id="rId108" xr:uid="{D346A862-C849-4AE7-A302-323F48C9A4D9}"/>
+    <hyperlink ref="E52" r:id="rId109" xr:uid="{7C356D15-47D4-46A2-A771-16E8DEAB808F}"/>
+    <hyperlink ref="F52" r:id="rId110" xr:uid="{7A85F938-B066-40D0-B185-F63296AEC0FF}"/>
+    <hyperlink ref="E53" r:id="rId111" xr:uid="{63EDCD79-D711-4634-B8D0-7AAB9F8A63B5}"/>
+    <hyperlink ref="F53" r:id="rId112" xr:uid="{39461841-0922-449F-A1E1-7B55B5D9ADA7}"/>
+    <hyperlink ref="E54" r:id="rId113" xr:uid="{6D06E3AA-C603-45F9-AF9F-C93822FA9150}"/>
+    <hyperlink ref="E55" r:id="rId114" xr:uid="{A8C68651-F4F5-4B9B-9A21-5FC1A371E07E}"/>
+    <hyperlink ref="F55" r:id="rId115" xr:uid="{FA4491C8-3767-4DD9-8B8C-B0B8BC02FA32}"/>
+    <hyperlink ref="E56" r:id="rId116" xr:uid="{805C0B6C-0384-4AD2-A10B-76ED14DB1773}"/>
+    <hyperlink ref="E57" r:id="rId117" xr:uid="{4BF3F6A3-E464-4018-A42E-7688A9156A83}"/>
+    <hyperlink ref="F57" r:id="rId118" xr:uid="{C9409F45-40A7-420A-9EE5-2182F202850D}"/>
+    <hyperlink ref="E58" r:id="rId119" xr:uid="{B14AC5FD-FE81-4ECC-8CD6-C9109BD017FE}"/>
+    <hyperlink ref="E59" r:id="rId120" xr:uid="{99E92395-FC1A-4DB7-8E66-E5FF6FA28889}"/>
+    <hyperlink ref="E60" r:id="rId121" xr:uid="{F6996C35-455F-4ABC-BEFD-9B6809E9BF80}"/>
+    <hyperlink ref="E61" r:id="rId122" xr:uid="{2BA3EDC1-C846-4971-B869-586DFCE456B5}"/>
+    <hyperlink ref="F61" r:id="rId123" xr:uid="{A3260696-37A6-463B-940B-59D48249D1E1}"/>
+    <hyperlink ref="E63" r:id="rId124" xr:uid="{B351812E-F025-48BC-BB12-14848B563546}"/>
+    <hyperlink ref="F63" r:id="rId125" xr:uid="{BC29F4AE-FB38-4CF2-AB2F-F79DAD3CCC68}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{5B229331-125E-4FF0-86B1-A3FC59F7A981}"/>
+    <hyperlink ref="F64" r:id="rId127" xr:uid="{5471E7B1-C7A8-4C74-9F15-C2FE3F0AC7FE}"/>
+    <hyperlink ref="E65" r:id="rId128" xr:uid="{E4F39384-78C3-42A1-8D45-E3D3C3DBF621}"/>
+    <hyperlink ref="F65" r:id="rId129" xr:uid="{C0817264-13E5-4E9A-97A2-F678AFF94AE1}"/>
+    <hyperlink ref="E66" r:id="rId130" xr:uid="{42B8C1D7-3048-4C85-9D24-0803223B5779}"/>
+    <hyperlink ref="E68" r:id="rId131" xr:uid="{84FBD73A-BFEE-49DF-A159-39E0C12EF60F}"/>
+    <hyperlink ref="E70" r:id="rId132" xr:uid="{85C648D2-259A-46A3-B9BD-564A71AB5C89}"/>
+    <hyperlink ref="F70" r:id="rId133" xr:uid="{AF98D58B-1CA0-4009-BDF9-3C20B9C10C2D}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{D31E1E1D-C4B5-474F-8DC0-D9742E18A15A}"/>
+    <hyperlink ref="F72" r:id="rId135" xr:uid="{D8C2C35D-8CF2-42E8-B5B0-33EF252A5BB7}"/>
+    <hyperlink ref="E73" r:id="rId136" xr:uid="{7405E0C7-E548-4DAA-9D42-B7DFA49BF97E}"/>
+    <hyperlink ref="F73" r:id="rId137" xr:uid="{0F24A16D-5EB2-437F-AB27-A047C068AFE8}"/>
+    <hyperlink ref="E74" r:id="rId138" xr:uid="{78BEFA3B-A301-492D-9024-59F04C701F8C}"/>
+    <hyperlink ref="F74" r:id="rId139" xr:uid="{A0C2A745-F30D-4E4C-93C6-2B72B4EC42F3}"/>
+    <hyperlink ref="E75" r:id="rId140" xr:uid="{D2CC83BF-3252-4EC1-9A28-2C6E7331DA6C}"/>
+    <hyperlink ref="E79" r:id="rId141" xr:uid="{AF2DBBFF-7695-481C-81AE-947DF2DE64E0}"/>
+    <hyperlink ref="F79" r:id="rId142" xr:uid="{CE749EA5-08EF-4BCA-B8A3-DBEB0ED5F2F6}"/>
+    <hyperlink ref="E80" r:id="rId143" xr:uid="{6B0438F2-189C-403E-B4E7-ECE5F744E531}"/>
+    <hyperlink ref="F80" r:id="rId144" xr:uid="{979FD16A-EDB5-4DD4-90CA-824628EC86BF}"/>
+    <hyperlink ref="E82" r:id="rId145" xr:uid="{F6B829DB-4A85-40D2-AEFB-FD8892DA8BC6}"/>
+    <hyperlink ref="E84" r:id="rId146" xr:uid="{9E6AB4A3-9235-4B29-8FDA-3CD92917A86D}"/>
+    <hyperlink ref="F84" r:id="rId147" xr:uid="{643F90CE-1EFC-450A-B1E3-D4075AB00C50}"/>
+    <hyperlink ref="E85" r:id="rId148" xr:uid="{0D23F68C-93E4-425B-8E20-9888BF87ACA1}"/>
+    <hyperlink ref="E86" r:id="rId149" xr:uid="{613F8275-A538-48BE-92DA-952DDA2C8F17}"/>
+    <hyperlink ref="E87" r:id="rId150" xr:uid="{3A7913DF-D16D-4621-9E25-8880D11FBC90}"/>
+    <hyperlink ref="F87" r:id="rId151" xr:uid="{AD15867C-22DB-4B70-B9B9-B3E9C19F8037}"/>
+    <hyperlink ref="E88" r:id="rId152" xr:uid="{8ABF7A7A-5169-40C5-839A-CB1F86F26E76}"/>
+    <hyperlink ref="F88" r:id="rId153" xr:uid="{12BFD238-E36C-4DC8-8B08-1BC9C4924C2A}"/>
+    <hyperlink ref="E90" r:id="rId154" xr:uid="{6A7C9DD5-1CC2-458A-8128-6526F5F052B7}"/>
+    <hyperlink ref="E92" r:id="rId155" xr:uid="{F64CC884-0C82-4AAB-9946-031B57FA4AD3}"/>
+    <hyperlink ref="F92" r:id="rId156" xr:uid="{B7BE7CEF-6AB1-441C-95B1-F754CBF166DF}"/>
+    <hyperlink ref="E93" r:id="rId157" xr:uid="{083D1325-D5A0-44AF-BDA8-1EFB18D653CF}"/>
+    <hyperlink ref="F93" r:id="rId158" xr:uid="{972EB5E2-9B18-434E-B454-A839EBA0FBA7}"/>
+    <hyperlink ref="E94" r:id="rId159" xr:uid="{21BB06D0-F22A-4372-9151-150B4E2E71F6}"/>
+    <hyperlink ref="F94" r:id="rId160" xr:uid="{FE4D7FDB-7F6B-40F6-BB73-B4C7E3A48E66}"/>
+    <hyperlink ref="E95" r:id="rId161" xr:uid="{87FE34AD-FB20-4A14-9CC1-11FA9FCBFC79}"/>
+    <hyperlink ref="F95" r:id="rId162" xr:uid="{36D891B7-8C20-4CB5-A74C-2348BF0FDCC9}"/>
+    <hyperlink ref="E96" r:id="rId163" xr:uid="{C953D60E-B565-428A-B02A-38353135CB0C}"/>
+    <hyperlink ref="F96" r:id="rId164" xr:uid="{B6BAAE0A-CF63-48C9-AF90-E57D5DEA0CF8}"/>
+    <hyperlink ref="E97" r:id="rId165" xr:uid="{7739ADE9-2E57-4E38-8E8C-C4183529FBE1}"/>
+    <hyperlink ref="F97" r:id="rId166" xr:uid="{1361D2CD-8BD7-4929-ACEC-594C293D72E3}"/>
+    <hyperlink ref="E100" r:id="rId167" xr:uid="{1913A7A9-505C-41ED-A35F-8A660822B83C}"/>
+    <hyperlink ref="E103" r:id="rId168" xr:uid="{D94CE574-44BC-4F0D-9AC7-079139DD74E4}"/>
+    <hyperlink ref="F103" r:id="rId169" xr:uid="{4C0EB53F-2D97-4EEE-8051-D76FCB4A5236}"/>
+    <hyperlink ref="E104" r:id="rId170" xr:uid="{62E42030-38DA-44F5-AD56-0314A774D708}"/>
+    <hyperlink ref="F104" r:id="rId171" xr:uid="{5D5FBBD8-0CB3-4D03-A32E-313B030B34C0}"/>
+    <hyperlink ref="E105" r:id="rId172" xr:uid="{4942237E-A949-4F5C-94D3-85F0EA85F2BA}"/>
+    <hyperlink ref="F105" r:id="rId173" xr:uid="{A3BA3274-197A-4E95-8415-01A449202115}"/>
+    <hyperlink ref="E106" r:id="rId174" xr:uid="{2E3678EC-CC6E-468C-A85F-B9E88DC8DC3D}"/>
+    <hyperlink ref="E108" r:id="rId175" xr:uid="{711AD5AE-0CBB-497D-BD63-62E3D63D8079}"/>
+    <hyperlink ref="F109" r:id="rId176" xr:uid="{B4773A95-1C9C-464D-804C-A016A73EB301}"/>
+    <hyperlink ref="E110" r:id="rId177" xr:uid="{A58B3111-775A-429D-A881-95475B5DC5E8}"/>
+    <hyperlink ref="F110" r:id="rId178" xr:uid="{D5CD84FB-5F79-4B51-9546-FEE67A92B46A}"/>
+    <hyperlink ref="E111" r:id="rId179" xr:uid="{5E78C3DC-3BEE-43D7-A6C8-5A0D114C2EBD}"/>
+    <hyperlink ref="E112" r:id="rId180" xr:uid="{B37223D3-FAB2-4CA8-8148-C216F8C75B5B}"/>
+    <hyperlink ref="F112" r:id="rId181" xr:uid="{2C396C5D-BD85-450B-A95C-E18D5AEF2B80}"/>
+    <hyperlink ref="E113" r:id="rId182" xr:uid="{46662246-65E9-44B8-9A2D-3C2F0380D30E}"/>
+    <hyperlink ref="E114" r:id="rId183" xr:uid="{F788089D-FFAC-48FF-9847-87DFB1242FFC}"/>
+    <hyperlink ref="E115" r:id="rId184" xr:uid="{7FD542B6-37F0-42AB-B42A-2C843043E096}"/>
+    <hyperlink ref="E118" r:id="rId185" xr:uid="{6C42468C-AEEE-48A6-8E5C-89CD2534704E}"/>
+    <hyperlink ref="E119" r:id="rId186" xr:uid="{6FE4B63D-D7FA-4B66-9A34-50E5EC578200}"/>
+    <hyperlink ref="E120" r:id="rId187" xr:uid="{3CB9E3B4-965B-4566-B4B1-B082C8950936}"/>
+    <hyperlink ref="E123" r:id="rId188" xr:uid="{DAC384F4-8094-4320-9710-647A5BA0B755}"/>
+    <hyperlink ref="F123" r:id="rId189" xr:uid="{90F3228F-9309-4476-952B-6F16AA489E0B}"/>
+    <hyperlink ref="E124" r:id="rId190" xr:uid="{63DCBDB3-8D3A-41ED-AF61-86C2CF02E228}"/>
+    <hyperlink ref="F124" r:id="rId191" xr:uid="{66A5712E-59EA-4B1A-A52D-544C5F97BC3A}"/>
+    <hyperlink ref="E125" r:id="rId192" xr:uid="{CB1A4DEA-0F15-4C33-BAAD-DDC70AAA6CCB}"/>
+    <hyperlink ref="F125" r:id="rId193" xr:uid="{1150A51F-7533-4638-B962-BAD18022F44F}"/>
+    <hyperlink ref="E126" r:id="rId194" xr:uid="{6DAFB00D-4E8D-41A2-931E-E13F441D6C21}"/>
+    <hyperlink ref="E127" r:id="rId195" xr:uid="{B462B5DA-F1E8-4CEF-8426-859B20A6F389}"/>
+    <hyperlink ref="E128" r:id="rId196" xr:uid="{D07A29A7-CE6D-4932-8FBC-FC9D9C603D2D}"/>
+    <hyperlink ref="E129" r:id="rId197" xr:uid="{7067F43B-3EE4-4E1B-A2E0-09B1CBE5398E}"/>
+    <hyperlink ref="F129" r:id="rId198" xr:uid="{9168F7C5-BEF7-49E4-B44E-B1BA1F12BDCA}"/>
+    <hyperlink ref="E130" r:id="rId199" xr:uid="{E0E58738-C64E-48AA-8FAE-9A8160E5EC36}"/>
+    <hyperlink ref="E132" r:id="rId200" xr:uid="{9973020C-3A95-41B3-AEF1-741BE0919A2C}"/>
+    <hyperlink ref="E133" r:id="rId201" xr:uid="{4D3451B2-A479-4ACD-BC0D-55770046AB96}"/>
+    <hyperlink ref="F133" r:id="rId202" xr:uid="{69D16723-7090-4946-B1D3-42536D6BC9B9}"/>
+    <hyperlink ref="E134" r:id="rId203" xr:uid="{97A05436-D11F-41B7-810B-6634260866DF}"/>
+    <hyperlink ref="F134" r:id="rId204" xr:uid="{7AC034AC-6B1A-43DC-B68F-FDE13BC177DC}"/>
+    <hyperlink ref="E136" r:id="rId205" xr:uid="{1513DE20-3F91-4CE3-A0B3-8D354E9A0D29}"/>
+    <hyperlink ref="F137" r:id="rId206" xr:uid="{9139243C-19F3-4239-8C40-B10D548F2EF4}"/>
+    <hyperlink ref="E138" r:id="rId207" xr:uid="{47E73ED0-3CFA-4A93-BBC2-1180AC307513}"/>
+    <hyperlink ref="F138" r:id="rId208" xr:uid="{8F3CF145-4602-4542-A45D-C92F6E00BEA5}"/>
+    <hyperlink ref="E142" r:id="rId209" xr:uid="{2C8C7948-4A9C-4263-8E98-4C9385CF716B}"/>
+    <hyperlink ref="E140" r:id="rId210" xr:uid="{9056BE6F-806A-4A7D-94CB-551FAE8769A7}"/>
+    <hyperlink ref="F142" r:id="rId211" xr:uid="{D4848C86-2FBA-450A-83AC-9B54D5785DD1}"/>
+    <hyperlink ref="E144" r:id="rId212" xr:uid="{A78CD198-D7FF-4DCA-9295-F546EFAED527}"/>
+    <hyperlink ref="F144" r:id="rId213" xr:uid="{7472BCE4-00EA-44CB-8B5A-2F5B4B9EDEFD}"/>
+    <hyperlink ref="F145" r:id="rId214" xr:uid="{A060C08F-E1B0-48B5-86A9-BCEABEE622B6}"/>
+    <hyperlink ref="E146" r:id="rId215" xr:uid="{852FB68E-1FEB-43BA-A090-AB192FB7FF75}"/>
+    <hyperlink ref="F146" r:id="rId216" xr:uid="{2D142AF8-D732-4ABA-8991-8FCBFFCB9AA3}"/>
+    <hyperlink ref="E147" r:id="rId217" xr:uid="{C7867F07-35BF-4906-A88F-4F33F1810700}"/>
+    <hyperlink ref="E148" r:id="rId218" xr:uid="{BC1D065E-E18B-4D86-A21E-E0D7AC833FAA}"/>
+    <hyperlink ref="D148" r:id="rId219" xr:uid="{5FFC061A-FE65-449A-869E-6468CB0798E7}"/>
+    <hyperlink ref="F148" r:id="rId220" xr:uid="{BDA38F27-6D41-44D4-8675-5F31B807B2B3}"/>
+    <hyperlink ref="E149" r:id="rId221" xr:uid="{A2FE174E-BDEC-4FC7-95A0-4C33BBF7EDC7}"/>
+    <hyperlink ref="F149" r:id="rId222" xr:uid="{D1903AC2-AEE7-43A7-A8D4-CC18568E8CCD}"/>
+    <hyperlink ref="E151" r:id="rId223" xr:uid="{EAFF5EC8-4E5A-4F69-AC6B-06897C208E49}"/>
+    <hyperlink ref="F151" r:id="rId224" xr:uid="{17FDE243-EEEC-47F9-9197-72488F1FF7F4}"/>
+    <hyperlink ref="E152" r:id="rId225" xr:uid="{7DFA440E-F0D4-49AC-9DBE-FD81F19EFADE}"/>
+    <hyperlink ref="F152" r:id="rId226" xr:uid="{1B2BC6BF-B0C1-48AC-9403-98F92E0C63CC}"/>
+    <hyperlink ref="E153" r:id="rId227" xr:uid="{E85CCFEC-96C9-49F9-A7B9-9ED85CB12C66}"/>
+    <hyperlink ref="F153" r:id="rId228" xr:uid="{208C66B2-110A-484E-918B-710B57A6479F}"/>
+    <hyperlink ref="E154" r:id="rId229" xr:uid="{4493F2BB-3635-4397-85D3-A360332AA4DE}"/>
+    <hyperlink ref="E155" r:id="rId230" xr:uid="{5D28A006-9FAA-413F-AC09-6ED0E6542A5C}"/>
+    <hyperlink ref="E156" r:id="rId231" xr:uid="{3B29E8E0-D8E1-4CA5-8117-BFF362A01F61}"/>
+    <hyperlink ref="F156" r:id="rId232" xr:uid="{A2190A62-BB43-47F3-A8C6-983D08B27DE4}"/>
+    <hyperlink ref="E158" r:id="rId233" xr:uid="{8EE9B6DF-4EB1-484D-BE47-30152C91CF8C}"/>
+    <hyperlink ref="E159" r:id="rId234" xr:uid="{60F6AA14-9865-480B-B338-E135A5486DEB}"/>
+    <hyperlink ref="F159" r:id="rId235" xr:uid="{6CFB35B0-D6D6-424C-BB30-664BBDE85D2D}"/>
+    <hyperlink ref="E160" r:id="rId236" xr:uid="{B2D486EF-FDB3-45EF-80CA-2B4EE237DAD7}"/>
+    <hyperlink ref="F160" r:id="rId237" xr:uid="{47D96884-50F2-46A5-B602-BD9F6EE919E9}"/>
+    <hyperlink ref="E161" r:id="rId238" xr:uid="{57003E29-E254-49D5-A631-B6422471EFD1}"/>
+    <hyperlink ref="F161" r:id="rId239" xr:uid="{2C7DF0CE-E9B0-4206-93B6-E60CF778F405}"/>
+    <hyperlink ref="E162" r:id="rId240" xr:uid="{0747B599-2441-4C5B-A085-7B495D4F46EA}"/>
+    <hyperlink ref="F162" r:id="rId241" xr:uid="{F8D81A1B-EECD-4184-95C2-42A0A867B217}"/>
+    <hyperlink ref="E163" r:id="rId242" xr:uid="{13BD01E9-0523-407E-A6C4-FD2287E0EF30}"/>
+    <hyperlink ref="F163" r:id="rId243" xr:uid="{AA817EAB-644E-42E7-BBE6-8C56A26A39B2}"/>
+    <hyperlink ref="E165" r:id="rId244" xr:uid="{DB66D4D3-C288-47CD-8DDE-491A2BD14249}"/>
+    <hyperlink ref="E167" r:id="rId245" xr:uid="{07FE418B-6D8D-4C05-86C8-D38633B83823}"/>
+    <hyperlink ref="E168" r:id="rId246" xr:uid="{43F45FE6-9033-4A15-BA1B-180748A51249}"/>
+    <hyperlink ref="F168" r:id="rId247" xr:uid="{8471692C-33B8-4309-8F60-0FA5A4F2A75C}"/>
+    <hyperlink ref="E169" r:id="rId248" xr:uid="{24501054-02DC-4159-84C2-7E65B8C76215}"/>
+    <hyperlink ref="F169" r:id="rId249" xr:uid="{1788A246-B6AE-446C-B685-7CDF72487633}"/>
+    <hyperlink ref="E170" r:id="rId250" xr:uid="{8D213D09-BC01-4289-A337-C41B98248F3F}"/>
+    <hyperlink ref="F170" r:id="rId251" xr:uid="{9E9FF8E3-DD84-4EAA-8648-121C8AD5EFE4}"/>
+    <hyperlink ref="E171" r:id="rId252" xr:uid="{A91887AA-B7BC-4117-BCB2-E4AA3259C464}"/>
+    <hyperlink ref="E172" r:id="rId253" xr:uid="{3DE524CE-CD66-413A-8CFB-0821A3E14CD8}"/>
+    <hyperlink ref="F172" r:id="rId254" xr:uid="{8D1BB584-24C2-48F5-A630-94D860FB600A}"/>
+    <hyperlink ref="E173" r:id="rId255" xr:uid="{E7573719-8640-4CA6-A107-C84E191F9E88}"/>
+    <hyperlink ref="F173" r:id="rId256" xr:uid="{81CEC920-488D-45FE-A367-0591A8FF825F}"/>
+    <hyperlink ref="E175" r:id="rId257" xr:uid="{5825A7BD-8C91-4355-9B83-EAFE38F4A388}"/>
+    <hyperlink ref="E178" r:id="rId258" xr:uid="{F82E8505-ED0B-4D58-B63A-C6E4550E071E}"/>
+    <hyperlink ref="E179" r:id="rId259" xr:uid="{1C39D010-372E-44AF-AC15-1FA351AD7EDA}"/>
+    <hyperlink ref="F179" r:id="rId260" xr:uid="{2A0CC59F-F081-4D46-9A81-43E82B43AA8F}"/>
+    <hyperlink ref="E180" r:id="rId261" xr:uid="{EBAA1CCA-DE3C-4353-9B57-50F2FC048A6D}"/>
+    <hyperlink ref="F181" r:id="rId262" xr:uid="{BACE7F25-6364-48FC-A96A-1A6B8E017263}"/>
+    <hyperlink ref="F182" r:id="rId263" xr:uid="{61BD2BF7-86B7-484F-8417-8A4D12CDFAC8}"/>
+    <hyperlink ref="E183" r:id="rId264" xr:uid="{70B00DF3-C724-46D6-BDD0-7E615B403A4A}"/>
+    <hyperlink ref="F183" r:id="rId265" xr:uid="{153336DA-DA94-4814-913B-CF94C875FC2B}"/>
+    <hyperlink ref="E184" r:id="rId266" xr:uid="{C5BF7D7B-2683-4F26-A176-68E89C03D0B6}"/>
+    <hyperlink ref="E185" r:id="rId267" xr:uid="{0E312627-2313-43E6-BC4D-24E669C0161D}"/>
+    <hyperlink ref="F185" r:id="rId268" xr:uid="{02CCB467-EE08-419C-B4CA-83CF2B273D6D}"/>
+    <hyperlink ref="E186" r:id="rId269" xr:uid="{D9858119-652F-4819-B608-6BE5C0627E39}"/>
+    <hyperlink ref="F186" r:id="rId270" xr:uid="{233144F3-2410-4A9C-81B3-198E28FDFE0C}"/>
+    <hyperlink ref="E187" r:id="rId271" xr:uid="{47904F13-ABB6-4C80-B9D9-0A148302E3A3}"/>
+    <hyperlink ref="F187" r:id="rId272" xr:uid="{BE5D0D93-BD33-4954-9823-8FB7E5C14A63}"/>
+    <hyperlink ref="E188" r:id="rId273" xr:uid="{FC8276CB-2F09-4D30-8177-6C4DCFADE100}"/>
+    <hyperlink ref="F188" r:id="rId274" xr:uid="{0C3DB881-DCB2-49ED-BAD9-A04C91DA64D9}"/>
+    <hyperlink ref="E190" r:id="rId275" xr:uid="{9779709B-4354-49FE-ABDA-A8085995122A}"/>
+    <hyperlink ref="E191" r:id="rId276" xr:uid="{F46FB7BC-C122-4503-A472-DBAEE50F5910}"/>
+    <hyperlink ref="F191" r:id="rId277" xr:uid="{094A2F28-5315-46D5-8AAD-A580DF3B928B}"/>
+    <hyperlink ref="E192" r:id="rId278" xr:uid="{A108CF1A-8DD5-4599-AFC4-7685470BF891}"/>
+    <hyperlink ref="E193" r:id="rId279" xr:uid="{00CE52D9-D60B-42D9-AC27-C737302E0E18}"/>
+    <hyperlink ref="F193" r:id="rId280" xr:uid="{14B9759C-3E62-4A78-A90B-18348F104C2A}"/>
+    <hyperlink ref="E194" r:id="rId281" xr:uid="{794CF15B-CD67-43F7-8640-8549AD805A1D}"/>
+    <hyperlink ref="F194" r:id="rId282" xr:uid="{2713F4D1-E51A-4F2F-AAD3-75C593100958}"/>
+    <hyperlink ref="E195" r:id="rId283" xr:uid="{ED276E3B-2562-40B5-8D36-60F4BE773E3A}"/>
+    <hyperlink ref="F195" r:id="rId284" xr:uid="{9B16F6FD-E013-420D-B94C-6E92A6FB573D}"/>
+    <hyperlink ref="E196" r:id="rId285" xr:uid="{360F6C87-C613-417C-85E4-EE6EA6E7AEAD}"/>
+    <hyperlink ref="E197" r:id="rId286" xr:uid="{0606BE99-E531-4FEC-93E6-FAD3CD1EB07C}"/>
+    <hyperlink ref="F197" r:id="rId287" xr:uid="{EB3B13B7-2F13-4491-828B-583F199E0BEB}"/>
+    <hyperlink ref="E198" r:id="rId288" xr:uid="{EFBDBACB-3624-4A33-B7AB-7F22350AD229}"/>
+    <hyperlink ref="F198" r:id="rId289" xr:uid="{E94C8001-C530-4D85-9C50-3927F6C90906}"/>
+    <hyperlink ref="E199" r:id="rId290" xr:uid="{B385271E-324C-4E81-96EB-E141AFB7BAB4}"/>
+    <hyperlink ref="F199" r:id="rId291" xr:uid="{C90D6002-2DEC-4AB4-8BCD-FC7152EEB81E}"/>
+    <hyperlink ref="E200" r:id="rId292" xr:uid="{0DDC7DF6-E7B6-44DE-9962-6EA6A0B0EC6B}"/>
+    <hyperlink ref="E201" r:id="rId293" xr:uid="{EF9CA4FD-560C-4211-B849-DFB55E5A62E9}"/>
+    <hyperlink ref="F201" r:id="rId294" xr:uid="{3BB3D31D-8A40-4EF5-88ED-EA4245E92851}"/>
+    <hyperlink ref="F202" r:id="rId295" xr:uid="{A79600A1-7CF3-4B5F-B21C-28113F2D4CD3}"/>
+    <hyperlink ref="D203" r:id="rId296" location=":~:text=Nathan%20Hales%2C%20MD%20is%20a,other%20specialists%20in%20his%20area." xr:uid="{3074B825-A67B-41DE-8EAF-88FA2EBF3442}"/>
+    <hyperlink ref="D208" r:id="rId297" xr:uid="{B7429C50-0F09-4DBD-8762-0305DBC05666}"/>
+    <hyperlink ref="E203" r:id="rId298" xr:uid="{05588E93-5FC4-4F40-833C-1707FA589F16}"/>
+    <hyperlink ref="F203" r:id="rId299" xr:uid="{E7B4DC64-4F07-4EBF-9DCC-A092844A4D8E}"/>
+    <hyperlink ref="F205" r:id="rId300" xr:uid="{9CAFB9AC-4B32-45D0-921A-385ED7CA1EB4}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -14115,3264 +14328,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27852A61-7B38-4839-9814-C6FBEBE0A2AE}">
-  <dimension ref="A1:J289"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="41">
-        <f>COUNTIF($A$1:$B$289,"N/A")</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.8">
-      <c r="A3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.8">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.8">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.8">
-      <c r="A7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13.8">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.8">
-      <c r="A12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.8">
-      <c r="A13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.8">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.8">
-      <c r="A15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.8">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.8">
-      <c r="A18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.8">
-      <c r="A19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6">
-      <c r="A20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.8">
-      <c r="A21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.8">
-      <c r="A23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6">
-      <c r="A24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6">
-      <c r="A25" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.8">
-      <c r="A26" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.8">
-      <c r="A27" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.8">
-      <c r="A28" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.8">
-      <c r="A29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.8">
-      <c r="A30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.8">
-      <c r="A31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.8">
-      <c r="A32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.8">
-      <c r="A33" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.8">
-      <c r="A34" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.8">
-      <c r="A35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.8">
-      <c r="A36" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.8">
-      <c r="A37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.8">
-      <c r="A38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6">
-      <c r="A39" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="13.8">
-      <c r="A40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6">
-      <c r="A41" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.8">
-      <c r="A42" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.8">
-      <c r="A43" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.8">
-      <c r="A44" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="13.8">
-      <c r="A45" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13.8">
-      <c r="A46" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.8">
-      <c r="A47" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.8">
-      <c r="A48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.8">
-      <c r="A49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.8">
-      <c r="A50" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="13.8">
-      <c r="A51" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13.8">
-      <c r="A52" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="13.8">
-      <c r="A53" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="13.8">
-      <c r="A54" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="13.8">
-      <c r="A55" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="13.8">
-      <c r="A56" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="13.8">
-      <c r="A57" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13.8">
-      <c r="A58" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13.8">
-      <c r="A59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13.8">
-      <c r="A60" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13.8">
-      <c r="A61" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="13.8">
-      <c r="A62" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.8">
-      <c r="A63" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.8">
-      <c r="A64" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13.8">
-      <c r="A65" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13.8">
-      <c r="A66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.8">
-      <c r="A67" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="13.8">
-      <c r="A68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13.8">
-      <c r="A69" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="13.8">
-      <c r="A70" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="13.8">
-      <c r="A71" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="13.8">
-      <c r="A72" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="13.8">
-      <c r="A73" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13.8">
-      <c r="A74" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="13.8">
-      <c r="A75" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="13.8">
-      <c r="A76" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="13.8">
-      <c r="A77" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="13.8">
-      <c r="A78" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="13.8">
-      <c r="A79" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="13.8">
-      <c r="A80" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="13.8">
-      <c r="A81" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="13.8">
-      <c r="A82" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="13.8">
-      <c r="A83" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="13.8">
-      <c r="A84" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="13.8">
-      <c r="A85" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="13.8">
-      <c r="A86" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13.8">
-      <c r="A87" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="13.8">
-      <c r="A88" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="13.8">
-      <c r="A89" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="13.8">
-      <c r="A90" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="13.8">
-      <c r="A91" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="13.8">
-      <c r="A92" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="13.8">
-      <c r="A93" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="13.8">
-      <c r="A94" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="13.8">
-      <c r="A95" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="13.8">
-      <c r="A96" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="13.8">
-      <c r="A97" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="13.8">
-      <c r="A98" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="79.2">
-      <c r="A99" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="79.2">
-      <c r="A100" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="13.8">
-      <c r="A101" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="13.8">
-      <c r="A102" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="13.8">
-      <c r="A103" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="13.8">
-      <c r="A104" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="13.8">
-      <c r="A105" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="13.8">
-      <c r="A106" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="13.8">
-      <c r="A107" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="13.8">
-      <c r="A108" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="13.8">
-      <c r="A109" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="13.8">
-      <c r="A110" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="13.8">
-      <c r="A111" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="13.8">
-      <c r="A112" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="13.8">
-      <c r="A113" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="13.8">
-      <c r="A114" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="13.8">
-      <c r="A115" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="13.8">
-      <c r="A116" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="13.8">
-      <c r="A117" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="13.8">
-      <c r="A118" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="13.8">
-      <c r="A119" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="13.8">
-      <c r="A120" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="13.8">
-      <c r="A121" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="13.8">
-      <c r="A122" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="13.8">
-      <c r="A123" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="13.8">
-      <c r="A124" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="13.8">
-      <c r="A125" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="13.8">
-      <c r="A126" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="13.8">
-      <c r="A127" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="13.8">
-      <c r="A128" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13.8">
-      <c r="A129" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="13.8">
-      <c r="A130" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="13.8">
-      <c r="A131" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="13.8">
-      <c r="A132" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="13.8">
-      <c r="A133" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="13.8">
-      <c r="A134" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="13.8">
-      <c r="A135" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="13.8">
-      <c r="A136" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="13.8">
-      <c r="A137" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="13.8">
-      <c r="A138" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="13.8">
-      <c r="A139" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="13.8">
-      <c r="A140" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="13.8">
-      <c r="A141" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="13.8">
-      <c r="A142" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="13.8">
-      <c r="A143" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="13.8">
-      <c r="A144" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="13.8">
-      <c r="A145" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="13.8">
-      <c r="A146" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="13.8">
-      <c r="A147" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="13.8">
-      <c r="A148" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="13.8">
-      <c r="A149" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="13.8">
-      <c r="A150" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="13.8">
-      <c r="A151" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="13.8">
-      <c r="A152" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="13.8">
-      <c r="A153" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="13.8">
-      <c r="A154" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="13.8">
-      <c r="A155" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13.8">
-      <c r="A156" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="13.8">
-      <c r="A157" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13.8">
-      <c r="A158" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="13.8">
-      <c r="A159" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="13.8">
-      <c r="A160" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="13.8">
-      <c r="A161" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="13.8">
-      <c r="A162" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="13.8">
-      <c r="A163" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="13.8">
-      <c r="A164" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="13.8">
-      <c r="A165" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="13.8">
-      <c r="A166" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="13.8">
-      <c r="A167" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="13.8">
-      <c r="A168" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="13.8">
-      <c r="A169" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="13.8">
-      <c r="A170" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="13.8">
-      <c r="A171" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>655</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="13.8">
-      <c r="A172" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>659</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="13.8">
-      <c r="A173" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="13.8">
-      <c r="A174" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="13.8">
-      <c r="A175" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="13.8">
-      <c r="A176" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="13.8">
-      <c r="A177" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="13.8">
-      <c r="A178" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="B178" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="13.8">
-      <c r="A179" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="13.8">
-      <c r="A180" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="13.8">
-      <c r="A181" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="13.8">
-      <c r="A182" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="13.8">
-      <c r="A183" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="13.8">
-      <c r="A184" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="B184" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="13.8">
-      <c r="A185" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="13.8">
-      <c r="A186" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="B186" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="13.8">
-      <c r="A187" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B187" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="13.8">
-      <c r="A188" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="13.8">
-      <c r="A189" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="13.8">
-      <c r="A190" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B190" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="13.8">
-      <c r="A191" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="13.8">
-      <c r="A192" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="13.8">
-      <c r="A193" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="B193" s="25" t="s">
-        <v>732</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="13.8">
-      <c r="A194" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="B194" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="13.8">
-      <c r="A195" s="25" t="s">
-        <v>735</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="13.8">
-      <c r="A196" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="B196" s="25" t="s">
-        <v>744</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="13.8">
-      <c r="A197" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="13.8">
-      <c r="A198" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="13.8">
-      <c r="A199" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="13.8">
-      <c r="A200" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="13.8">
-      <c r="A201" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>769</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="13.8">
-      <c r="A202" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="13.8">
-      <c r="A203" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="13.8">
-      <c r="A204" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="25" t="s">
-        <v>779</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="13.8">
-      <c r="A205" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="B205" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="13.8">
-      <c r="A206" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="13.8">
-      <c r="A207" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="13.8">
-      <c r="A208" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="13.8">
-      <c r="A209" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="13.8">
-      <c r="A210" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="13.8">
-      <c r="A211" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="B211" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="13.8">
-      <c r="A212" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="13.8">
-      <c r="A213" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="13.8">
-      <c r="A214" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="13.8">
-      <c r="A215" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="13.8">
-      <c r="A216" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="13.8">
-      <c r="A217" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="B217" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="13.8">
-      <c r="A218" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="13.8">
-      <c r="A219" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="13.8">
-      <c r="A220" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="B220" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="13.8">
-      <c r="A221" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="13.8">
-      <c r="A222" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="13.8">
-      <c r="A223" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="13.8">
-      <c r="A224" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="13.8">
-      <c r="A225" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="13.8">
-      <c r="A226" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="13.8">
-      <c r="A227" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="13.8">
-      <c r="A228" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="13.8">
-      <c r="A229" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="13.8">
-      <c r="A230" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="C230" s="27" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="13.8">
-      <c r="A231" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="13.8">
-      <c r="A232" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="13.8">
-      <c r="A233" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="13.8">
-      <c r="A234" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="13.8">
-      <c r="A235" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="13.8">
-      <c r="A236" s="25" t="s">
-        <v>899</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="13.8">
-      <c r="A237" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="13.8">
-      <c r="A238" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="13.8">
-      <c r="A239" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="13.8">
-      <c r="A240" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="13.8">
-      <c r="A241" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="13.8">
-      <c r="A242" s="25" t="s">
-        <v>919</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="13.8">
-      <c r="A243" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="13.8">
-      <c r="A244" s="25" t="s">
-        <v>925</v>
-      </c>
-      <c r="B244" s="25" t="s">
-        <v>926</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="13.8">
-      <c r="A245" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="13.8">
-      <c r="A246" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="13.8">
-      <c r="A247" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="13.8">
-      <c r="A248" s="25" t="s">
-        <v>943</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="13.8">
-      <c r="A249" s="36" t="s">
-        <v>946</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="13.8">
-      <c r="A250" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="13.8">
-      <c r="A251" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="13.8">
-      <c r="A252" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>956</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="13.8">
-      <c r="A253" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="B253" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="13.8">
-      <c r="A254" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="13.8">
-      <c r="A255" s="13" t="s">
-        <v>967</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="13.8">
-      <c r="A256" s="13" t="s">
-        <v>970</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="13.8">
-      <c r="A257" s="36" t="s">
-        <v>976</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="13.8">
-      <c r="A258" s="36" t="s">
-        <v>979</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="13.8">
-      <c r="A259" s="36" t="s">
-        <v>983</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="13.8">
-      <c r="A260" s="36" t="s">
-        <v>987</v>
-      </c>
-      <c r="B260" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="C260" s="25" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="13.8">
-      <c r="A261" s="36" t="s">
-        <v>991</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="13.8">
-      <c r="A262" s="13" t="s">
-        <v>994</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="13.8">
-      <c r="A263" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="B263" s="25" t="s">
-        <v>998</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="13.8">
-      <c r="A264" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="13.8">
-      <c r="A265" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="13.8">
-      <c r="A266" s="13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C266" s="36" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="13.8">
-      <c r="A267" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="13.8">
-      <c r="A268" s="29" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="13.8">
-      <c r="A269" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="13.8">
-      <c r="A270" s="13" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="13.8">
-      <c r="A271" s="13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="13.8">
-      <c r="A272" s="29" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B272" s="29" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="13.8">
-      <c r="A273" s="36" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B273" s="13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="158.4">
-      <c r="A274" s="13" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B274" s="30" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="13.8">
-      <c r="A275" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B275" s="31" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="13.8">
-      <c r="A276" s="29" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="13.8">
-      <c r="A277" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="13.8">
-      <c r="A278" s="29" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B278" s="29" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="13.8">
-      <c r="A279" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C279" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="13.8">
-      <c r="A280" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="13.8">
-      <c r="A281" s="29" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B281" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="13.8">
-      <c r="A282" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="13.8">
-      <c r="A283" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="13.8">
-      <c r="A284" s="13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B284" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="13.8">
-      <c r="A285" s="13" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B285" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="13.8">
-      <c r="A286" s="13" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B286" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="13.8">
-      <c r="A287" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="13.8">
-      <c r="A288" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="13.8">
-      <c r="A289" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{EE160D9A-37A2-4933-8E76-88E346485FB0}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{E0A1DEA4-4D08-46D1-9461-92E872D93AC6}"/>
-    <hyperlink ref="C1" r:id="rId3" xr:uid="{905DBC65-6147-4C6D-A219-FBFDF8E1F919}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{956BE504-D62D-484F-B13C-DDC2BD2792F4}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{4FA962B9-AA6D-40ED-9F9E-3A734CA5303F}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{A3037E59-A60F-4263-8734-9D6B3639A415}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{FEC9BE41-1CB0-456A-B884-552A2392F597}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{C6BFB3DB-6303-4C5B-A414-B4B0477BC4EB}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{787334D0-34C1-48D7-8B5A-1D4A5AF5992C}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{4E345C5A-3CF8-43BD-B119-B883430C2F4C}"/>
-    <hyperlink ref="A9" r:id="rId11" xr:uid="{C19F4236-5D83-4663-8192-8E33D4879ECF}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{50D69FBC-15D6-4C56-8673-F95B4FA94291}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{2C4AF700-D562-4576-BAD5-D60B01850A8A}"/>
-    <hyperlink ref="A11" r:id="rId14" xr:uid="{4A0182A2-94CC-4213-A557-30EF3F642850}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{1C9B1101-39AA-437A-9997-0478B9DE4228}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{A9495E6A-8E07-4EA0-98C8-1DFEAC997359}"/>
-    <hyperlink ref="B16" r:id="rId17" display="https://www.healthgrades.com/physician/dr-amy-chen-x4768" xr:uid="{72DB2C01-8B7A-41D0-A9F2-09D083E53446}"/>
-    <hyperlink ref="C16" r:id="rId18" xr:uid="{F5B1EB45-677E-4011-B7CD-EC7B338D751B}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{CC0D361A-6998-4329-8AA0-C7DDDECB134A}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{D9EDFA1E-203F-4057-B529-DD893C5E236E}"/>
-    <hyperlink ref="B20" r:id="rId21" xr:uid="{4B0D689E-8610-48E2-9EF3-745D2C6E7955}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{1FE00AD4-7B91-41F9-85C8-60369DCC3305}"/>
-    <hyperlink ref="B22" r:id="rId23" xr:uid="{E1E269FB-F83A-4895-8F19-85F0E24A3C76}"/>
-    <hyperlink ref="A23" r:id="rId24" xr:uid="{10B20308-3792-4BF1-B7AC-EB4317225136}"/>
-    <hyperlink ref="A24" r:id="rId25" xr:uid="{3E8FB6E2-0FB9-4CF6-A5F4-2A505561089D}"/>
-    <hyperlink ref="B24" r:id="rId26" xr:uid="{6467A46B-9DAD-409C-ABE2-ABC78BA3A5CA}"/>
-    <hyperlink ref="A25" r:id="rId27" xr:uid="{4B8C008B-1780-4B42-8E63-879D95917D4E}"/>
-    <hyperlink ref="B25" r:id="rId28" xr:uid="{F0370970-0079-44A4-803B-E032C10ED2F6}"/>
-    <hyperlink ref="A26" r:id="rId29" xr:uid="{369871F2-ED5C-4B92-A3E2-98410063C6F5}"/>
-    <hyperlink ref="A27" r:id="rId30" xr:uid="{FE81B9CA-9F3C-4371-BAD2-E1115801F957}"/>
-    <hyperlink ref="B27" r:id="rId31" xr:uid="{68E5B309-EEEC-43CF-B890-B519681E95FE}"/>
-    <hyperlink ref="C27" r:id="rId32" xr:uid="{2C2DBA41-56D9-45C5-B345-515D0C48184D}"/>
-    <hyperlink ref="A28" r:id="rId33" xr:uid="{EDA58CBC-B779-4220-8B11-4D4FB3F48ED6}"/>
-    <hyperlink ref="B28" r:id="rId34" xr:uid="{AEFDEA78-CBFA-4448-B539-61C1E8FF4979}"/>
-    <hyperlink ref="B31" r:id="rId35" xr:uid="{7F44EA46-008B-4E4B-A881-877AB3F42449}"/>
-    <hyperlink ref="A33" r:id="rId36" xr:uid="{A9136A79-7EAD-442C-8A8E-B1799F4BDDA3}"/>
-    <hyperlink ref="B33" r:id="rId37" xr:uid="{57FABAC3-4D92-4B7B-BA2E-D11C873B1FE7}"/>
-    <hyperlink ref="A34" r:id="rId38" xr:uid="{92A66E94-ABAB-4272-AF9F-DD400284A1C1}"/>
-    <hyperlink ref="A39" r:id="rId39" xr:uid="{CCB674E9-F96B-489E-BCB0-135E76A500A9}"/>
-    <hyperlink ref="B39" r:id="rId40" xr:uid="{D0817D6E-3AC4-49BB-872B-180853FE9F91}"/>
-    <hyperlink ref="C39" r:id="rId41" xr:uid="{C8B08FF8-9B1F-4CDB-804D-DA8AD6E507DC}"/>
-    <hyperlink ref="A41" r:id="rId42" xr:uid="{51194BD8-6076-4754-BD0C-DD45E6148DEE}"/>
-    <hyperlink ref="B41" r:id="rId43" xr:uid="{58081544-3BB1-4245-A5B0-A0E040DBD418}"/>
-    <hyperlink ref="C41" r:id="rId44" xr:uid="{18746CC5-4640-47E7-ABB6-0E9D40F60761}"/>
-    <hyperlink ref="A42" r:id="rId45" xr:uid="{CCD0AEF2-AD1B-49B2-BC18-E80CF4E5EC95}"/>
-    <hyperlink ref="A100" r:id="rId46" xr:uid="{3FA91BD9-D4C7-43E5-A22F-DF335B29824B}"/>
-    <hyperlink ref="B274" r:id="rId47" xr:uid="{FB7CA805-4020-4ACD-8D56-AB29BD4F8D7F}"/>
-    <hyperlink ref="A61" r:id="rId48" xr:uid="{519C357B-E92D-40F3-9407-473DE1431313}"/>
-    <hyperlink ref="C87" r:id="rId49" xr:uid="{A6A0FF55-6D25-4B99-B4D0-906231B7E00D}"/>
-    <hyperlink ref="C266" r:id="rId50" xr:uid="{38DA9241-7268-412E-9529-F210A255DBE9}"/>
-    <hyperlink ref="A275" r:id="rId51" xr:uid="{279CE7ED-EAB3-4AD4-B7EE-4CFBBACBA23D}"/>
-    <hyperlink ref="A273" r:id="rId52" xr:uid="{2817575E-41D9-4E6C-B20E-B182D1617F44}"/>
-    <hyperlink ref="A249" r:id="rId53" xr:uid="{2D38FF34-C4DB-4D0E-AF22-E3CB69ABF2A2}"/>
-    <hyperlink ref="A261" r:id="rId54" xr:uid="{8C3910B1-3C09-46FC-A7E4-405710B63879}"/>
-    <hyperlink ref="A260" r:id="rId55" xr:uid="{51FED39B-346C-458F-9474-322AA9FC4A3F}"/>
-    <hyperlink ref="A259" r:id="rId56" xr:uid="{2D073FBE-0196-4723-ACAE-FB7F930DD8CB}"/>
-    <hyperlink ref="A257" r:id="rId57" xr:uid="{F6FD9E34-5585-4CE4-8E08-7B14EC2F2510}"/>
-    <hyperlink ref="A258" r:id="rId58" xr:uid="{D7240623-B27A-4A92-B924-CDE2CCE0716F}"/>
-    <hyperlink ref="B47" r:id="rId59" xr:uid="{1EB5CC58-FE3D-4122-AED8-1CD01CA354F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
-</worksheet>
 </file>